--- a/Gen3StatChanges.xlsx
+++ b/Gen3StatChanges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA4966-ABC0-4BF3-9BBB-35122932BCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9C04D7-BA39-4D27-8E52-FAD0EFE8B98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C44F34A-807E-46C8-9DD2-DE8BB763117D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="427">
   <si>
     <t>Sunkern</t>
   </si>
@@ -1538,18 +1538,138 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1598,58 +1718,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1825,15 +1893,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1848,84 +1910,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2005,6 +1992,19 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2019,34 +2019,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A049D3D9-A2D5-44C5-98D3-F4C05364500E}" name="Table1" displayName="Table1" ref="A1:U387" totalsRowShown="0" headerRowDxfId="5" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A049D3D9-A2D5-44C5-98D3-F4C05364500E}" name="Table1" displayName="Table1" ref="A1:U387" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A1:U387" xr:uid="{A049D3D9-A2D5-44C5-98D3-F4C05364500E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T387">
     <sortCondition ref="A1:A387"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{D202DD4B-755D-4C5D-91CE-F8F21313E41E}" name="National Dex " dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{E2C53321-A6E7-4FDE-AE0D-563F234BB54D}" name="Pokemon " dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{BD422956-B713-47C2-8DA0-58E077D4F672}" name="Type 1 " dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{168A5E0C-C172-415A-A20F-2185D7099D76}" name="Type 2 " dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{0F3569C1-89F7-4814-9B24-DB2726C1A61F}" name="Total " dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{533ADA84-5BA5-457C-94F7-8DD9CC1EE365}" name="HP " dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{1B8887F2-5806-4C88-8C2E-D75389809C3E}" name="Atk " dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{733C0456-885D-486A-A2C2-74917EED9A40}" name="Def " dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{9DDD80B3-503C-417F-8574-9B8C7534253A}" name="SpAtk " dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{8EE65DCD-4E36-4A12-BDF0-708E7247D712}" name="SpDef " dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{E4F47EF3-C3C4-4EA7-9B65-DF2FDD74415A}" name="Spe " dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{5242BC06-09C3-4EA1-ADE5-CC78273DCA89}" name="New Type 1 " dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{3D278F20-B1BE-49FC-9F7D-624B47E438C5}" name="New Type 2 " dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{35BCC3E1-DF92-47E0-AE5C-774AACC0C4CA}" name="New Total " dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{D202DD4B-755D-4C5D-91CE-F8F21313E41E}" name="National Dex " dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{E2C53321-A6E7-4FDE-AE0D-563F234BB54D}" name="Pokemon " dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{BD422956-B713-47C2-8DA0-58E077D4F672}" name="Type 1 " dataDxfId="18"/>
+    <tableColumn id="19" xr3:uid="{168A5E0C-C172-415A-A20F-2185D7099D76}" name="Type 2 " dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{0F3569C1-89F7-4814-9B24-DB2726C1A61F}" name="Total " dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{533ADA84-5BA5-457C-94F7-8DD9CC1EE365}" name="HP " dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{1B8887F2-5806-4C88-8C2E-D75389809C3E}" name="Atk " dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{733C0456-885D-486A-A2C2-74917EED9A40}" name="Def " dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{9DDD80B3-503C-417F-8574-9B8C7534253A}" name="SpAtk " dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{8EE65DCD-4E36-4A12-BDF0-708E7247D712}" name="SpDef " dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{E4F47EF3-C3C4-4EA7-9B65-DF2FDD74415A}" name="Spe " dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{5242BC06-09C3-4EA1-ADE5-CC78273DCA89}" name="New Type 1 " dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{3D278F20-B1BE-49FC-9F7D-624B47E438C5}" name="New Type 2 " dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{35BCC3E1-DF92-47E0-AE5C-774AACC0C4CA}" name="New Total " dataDxfId="7">
       <calculatedColumnFormula>SUM(O2:T2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{249D55CF-1C77-4CE1-9AC8-0EF5B0E9E13F}" name="Old HP " dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{FE81705A-6053-405E-B0CC-71BACCFDAB30}" name="Old Atk " dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{FD1F5E08-3B2B-468C-A2D9-3D4ABF2FB87C}" name="Old Def " dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{21279981-07B6-4DB9-8B6D-365E4BBF7320}" name="Old SpAtk " dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{6AFEE212-8B0E-4A32-A8BD-15D72C920696}" name="Old SpDef " dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{64D39323-9500-4125-B81E-5D6110A3DBDA}" name="Old Spe " dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{249D55CF-1C77-4CE1-9AC8-0EF5B0E9E13F}" name="Old HP " dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{FE81705A-6053-405E-B0CC-71BACCFDAB30}" name="Old Atk " dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{FD1F5E08-3B2B-468C-A2D9-3D4ABF2FB87C}" name="Old Def " dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{21279981-07B6-4DB9-8B6D-365E4BBF7320}" name="Old SpAtk " dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{6AFEE212-8B0E-4A32-A8BD-15D72C920696}" name="Old SpDef " dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{64D39323-9500-4125-B81E-5D6110A3DBDA}" name="Old Spe " dataDxfId="1"/>
     <tableColumn id="22" xr3:uid="{9C999DCE-BC07-4ED7-B450-534AB9BC2E5C}" name="Changed?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64334976-FEAC-49D8-899F-D33AD155E41F}">
   <dimension ref="A1:U387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D387" sqref="D387"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188:D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,7 +2481,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4">
-        <f>SUM(O2:T2)</f>
+        <f t="shared" ref="N2:N65" si="0">SUM(O2:T2)</f>
         <v>318</v>
       </c>
       <c r="O2" s="4">
@@ -2543,7 +2543,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4">
-        <f>SUM(O3:T3)</f>
+        <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="O3" s="4">
@@ -2605,7 +2605,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4">
-        <f>SUM(O4:T4)</f>
+        <f t="shared" si="0"/>
         <v>525</v>
       </c>
       <c r="O4" s="4">
@@ -2665,7 +2665,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4">
-        <f>SUM(O5:T5)</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="O5" s="4">
@@ -2725,7 +2725,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4">
-        <f>SUM(O6:T6)</f>
+        <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="O6" s="4">
@@ -2787,7 +2787,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4">
-        <f>SUM(O7:T7)</f>
+        <f t="shared" si="0"/>
         <v>534</v>
       </c>
       <c r="O7" s="4">
@@ -2847,7 +2847,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4">
-        <f>SUM(O8:T8)</f>
+        <f t="shared" si="0"/>
         <v>314</v>
       </c>
       <c r="O8" s="4">
@@ -2907,7 +2907,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4">
-        <f>SUM(O9:T9)</f>
+        <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="O9" s="4">
@@ -2967,7 +2967,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4">
-        <f>SUM(O10:T10)</f>
+        <f t="shared" si="0"/>
         <v>530</v>
       </c>
       <c r="O10" s="4">
@@ -3027,7 +3027,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4">
-        <f>SUM(O11:T11)</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="O11" s="4">
@@ -3087,7 +3087,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4">
-        <f>SUM(O12:T12)</f>
+        <f t="shared" si="0"/>
         <v>205</v>
       </c>
       <c r="O12" s="4">
@@ -3149,7 +3149,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4">
-        <f>SUM(O13:T13)</f>
+        <f t="shared" si="0"/>
         <v>385</v>
       </c>
       <c r="O13" s="4">
@@ -3211,7 +3211,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4">
-        <f>SUM(O14:T14)</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="O14" s="4">
@@ -3273,7 +3273,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4">
-        <f>SUM(O15:T15)</f>
+        <f t="shared" si="0"/>
         <v>205</v>
       </c>
       <c r="O15" s="4">
@@ -3335,7 +3335,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4">
-        <f>SUM(O16:T16)</f>
+        <f t="shared" si="0"/>
         <v>385</v>
       </c>
       <c r="O16" s="4">
@@ -3397,7 +3397,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4">
-        <f>SUM(O17:T17)</f>
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
       <c r="O17" s="4">
@@ -3459,7 +3459,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4">
-        <f>SUM(O18:T18)</f>
+        <f t="shared" si="0"/>
         <v>349</v>
       </c>
       <c r="O18" s="4">
@@ -3521,7 +3521,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4">
-        <f>SUM(O19:T19)</f>
+        <f t="shared" si="0"/>
         <v>469</v>
       </c>
       <c r="O19" s="4">
@@ -3581,7 +3581,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4">
-        <f>SUM(O20:T20)</f>
+        <f t="shared" si="0"/>
         <v>253</v>
       </c>
       <c r="O20" s="4">
@@ -3641,7 +3641,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4">
-        <f>SUM(O21:T21)</f>
+        <f t="shared" si="0"/>
         <v>413</v>
       </c>
       <c r="O21" s="4">
@@ -3703,7 +3703,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4">
-        <f>SUM(O22:T22)</f>
+        <f t="shared" si="0"/>
         <v>262</v>
       </c>
       <c r="O22" s="4">
@@ -3765,7 +3765,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4">
-        <f>SUM(O23:T23)</f>
+        <f t="shared" si="0"/>
         <v>442</v>
       </c>
       <c r="O23" s="4">
@@ -3825,7 +3825,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4">
-        <f>SUM(O24:T24)</f>
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
       <c r="O24" s="4">
@@ -3885,7 +3885,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4">
-        <f>SUM(O25:T25)</f>
+        <f t="shared" si="0"/>
         <v>438</v>
       </c>
       <c r="O25" s="4">
@@ -3945,7 +3945,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4">
-        <f>SUM(O26:T26)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="O26" s="4">
@@ -4005,7 +4005,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
-        <f>SUM(O27:T27)</f>
+        <f t="shared" si="0"/>
         <v>475</v>
       </c>
       <c r="O27" s="4">
@@ -4065,7 +4065,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4">
-        <f>SUM(O28:T28)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="O28" s="4">
@@ -4125,7 +4125,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4">
-        <f>SUM(O29:T29)</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="O29" s="4">
@@ -4185,7 +4185,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4">
-        <f>SUM(O30:T30)</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="O30" s="4">
@@ -4245,7 +4245,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4">
-        <f>SUM(O31:T31)</f>
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
       <c r="O31" s="4">
@@ -4307,7 +4307,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4">
-        <f>SUM(O32:T32)</f>
+        <f t="shared" si="0"/>
         <v>495</v>
       </c>
       <c r="O32" s="4">
@@ -4367,7 +4367,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4">
-        <f>SUM(O33:T33)</f>
+        <f t="shared" si="0"/>
         <v>273</v>
       </c>
       <c r="O33" s="4">
@@ -4427,7 +4427,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4">
-        <f>SUM(O34:T34)</f>
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
       <c r="O34" s="4">
@@ -4489,7 +4489,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4">
-        <f>SUM(O35:T35)</f>
+        <f t="shared" si="0"/>
         <v>495</v>
       </c>
       <c r="O35" s="4">
@@ -4549,7 +4549,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4">
-        <f>SUM(O36:T36)</f>
+        <f t="shared" si="0"/>
         <v>323</v>
       </c>
       <c r="O36" s="4">
@@ -4609,7 +4609,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4">
-        <f>SUM(O37:T37)</f>
+        <f t="shared" si="0"/>
         <v>473</v>
       </c>
       <c r="O37" s="4">
@@ -4669,7 +4669,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4">
-        <f>SUM(O38:T38)</f>
+        <f t="shared" si="0"/>
         <v>299</v>
       </c>
       <c r="O38" s="4">
@@ -4729,7 +4729,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4">
-        <f>SUM(O39:T39)</f>
+        <f t="shared" si="0"/>
         <v>505</v>
       </c>
       <c r="O39" s="4">
@@ -4789,7 +4789,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4">
-        <f>SUM(O40:T40)</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="O40" s="4">
@@ -4849,7 +4849,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4">
-        <f>SUM(O41:T41)</f>
+        <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="O41" s="4">
@@ -4911,7 +4911,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4">
-        <f>SUM(O42:T42)</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="O42" s="4">
@@ -4973,7 +4973,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4">
-        <f>SUM(O43:T43)</f>
+        <f t="shared" si="0"/>
         <v>455</v>
       </c>
       <c r="O43" s="4">
@@ -5035,7 +5035,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4">
-        <f>SUM(O44:T44)</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="O44" s="4">
@@ -5097,7 +5097,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4">
-        <f>SUM(O45:T45)</f>
+        <f t="shared" si="0"/>
         <v>395</v>
       </c>
       <c r="O45" s="4">
@@ -5159,7 +5159,7 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4">
-        <f>SUM(O46:T46)</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="O46" s="4">
@@ -5221,7 +5221,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4">
-        <f>SUM(O47:T47)</f>
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
       <c r="O47" s="4">
@@ -5283,7 +5283,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4">
-        <f>SUM(O48:T48)</f>
+        <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="O48" s="4">
@@ -5345,7 +5345,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4">
-        <f>SUM(O49:T49)</f>
+        <f t="shared" si="0"/>
         <v>305</v>
       </c>
       <c r="O49" s="4">
@@ -5407,7 +5407,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4">
-        <f>SUM(O50:T50)</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="O50" s="4">
@@ -5467,7 +5467,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4">
-        <f>SUM(O51:T51)</f>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="O51" s="4">
@@ -5527,7 +5527,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4">
-        <f>SUM(O52:T52)</f>
+        <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="O52" s="4">
@@ -5587,7 +5587,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4">
-        <f>SUM(O53:T53)</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="O53" s="4">
@@ -5647,7 +5647,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4">
-        <f>SUM(O54:T54)</f>
+        <f t="shared" si="0"/>
         <v>440</v>
       </c>
       <c r="O54" s="4">
@@ -5707,7 +5707,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4">
-        <f>SUM(O55:T55)</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="O55" s="4">
@@ -5767,7 +5767,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4">
-        <f>SUM(O56:T56)</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="O56" s="4">
@@ -5827,7 +5827,7 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4">
-        <f>SUM(O57:T57)</f>
+        <f t="shared" si="0"/>
         <v>305</v>
       </c>
       <c r="O57" s="4">
@@ -5887,7 +5887,7 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4">
-        <f>SUM(O58:T58)</f>
+        <f t="shared" si="0"/>
         <v>455</v>
       </c>
       <c r="O58" s="4">
@@ -5947,7 +5947,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4">
-        <f>SUM(O59:T59)</f>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="O59" s="4">
@@ -6007,7 +6007,7 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4">
-        <f>SUM(O60:T60)</f>
+        <f t="shared" si="0"/>
         <v>555</v>
       </c>
       <c r="O60" s="4">
@@ -6067,7 +6067,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4">
-        <f>SUM(O61:T61)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="O61" s="4">
@@ -6127,7 +6127,7 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4">
-        <f>SUM(O62:T62)</f>
+        <f t="shared" si="0"/>
         <v>385</v>
       </c>
       <c r="O62" s="4">
@@ -6189,7 +6189,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4">
-        <f>SUM(O63:T63)</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="O63" s="4">
@@ -6249,7 +6249,7 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4">
-        <f>SUM(O64:T64)</f>
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="O64" s="4">
@@ -6309,7 +6309,7 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4">
-        <f>SUM(O65:T65)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="O65" s="4">
@@ -6369,7 +6369,7 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4">
-        <f>SUM(O66:T66)</f>
+        <f t="shared" ref="N66:N129" si="1">SUM(O66:T66)</f>
         <v>490</v>
       </c>
       <c r="O66" s="4">
@@ -6429,7 +6429,7 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4">
-        <f>SUM(O67:T67)</f>
+        <f t="shared" si="1"/>
         <v>305</v>
       </c>
       <c r="O67" s="4">
@@ -6489,7 +6489,7 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4">
-        <f>SUM(O68:T68)</f>
+        <f t="shared" si="1"/>
         <v>405</v>
       </c>
       <c r="O68" s="4">
@@ -6549,7 +6549,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4">
-        <f>SUM(O69:T69)</f>
+        <f t="shared" si="1"/>
         <v>505</v>
       </c>
       <c r="O69" s="4">
@@ -6611,7 +6611,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4">
-        <f>SUM(O70:T70)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="O70" s="4">
@@ -6673,7 +6673,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4">
-        <f>SUM(O71:T71)</f>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="O71" s="4">
@@ -6735,7 +6735,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4">
-        <f>SUM(O72:T72)</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="O72" s="4">
@@ -6797,7 +6797,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4">
-        <f>SUM(O73:T73)</f>
+        <f t="shared" si="1"/>
         <v>335</v>
       </c>
       <c r="O73" s="4">
@@ -6859,7 +6859,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4">
-        <f>SUM(O74:T74)</f>
+        <f t="shared" si="1"/>
         <v>515</v>
       </c>
       <c r="O74" s="4">
@@ -6921,7 +6921,7 @@
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4">
-        <f>SUM(O75:T75)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="O75" s="4">
@@ -6983,7 +6983,7 @@
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4">
-        <f>SUM(O76:T76)</f>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="O76" s="4">
@@ -7045,7 +7045,7 @@
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4">
-        <f>SUM(O77:T77)</f>
+        <f t="shared" si="1"/>
         <v>485</v>
       </c>
       <c r="O77" s="4">
@@ -7105,7 +7105,7 @@
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4">
-        <f>SUM(O78:T78)</f>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="O78" s="4">
@@ -7165,7 +7165,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4">
-        <f>SUM(O79:T79)</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="O79" s="4">
@@ -7227,7 +7227,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4">
-        <f>SUM(O80:T80)</f>
+        <f t="shared" si="1"/>
         <v>315</v>
       </c>
       <c r="O80" s="4">
@@ -7289,7 +7289,7 @@
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4">
-        <f>SUM(O81:T81)</f>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="O81" s="4">
@@ -7351,7 +7351,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4">
-        <f>SUM(O82:T82)</f>
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="O82" s="4">
@@ -7413,7 +7413,7 @@
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4">
-        <f>SUM(O83:T83)</f>
+        <f t="shared" si="1"/>
         <v>465</v>
       </c>
       <c r="O83" s="4">
@@ -7475,7 +7475,7 @@
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4">
-        <f>SUM(O84:T84)</f>
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="O84" s="4">
@@ -7537,7 +7537,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4">
-        <f>SUM(O85:T85)</f>
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
       <c r="O85" s="4">
@@ -7599,7 +7599,7 @@
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4">
-        <f>SUM(O86:T86)</f>
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="O86" s="4">
@@ -7659,7 +7659,7 @@
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4">
-        <f>SUM(O87:T87)</f>
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="O87" s="4">
@@ -7721,7 +7721,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4">
-        <f>SUM(O88:T88)</f>
+        <f t="shared" si="1"/>
         <v>475</v>
       </c>
       <c r="O88" s="4">
@@ -7781,7 +7781,7 @@
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4">
-        <f>SUM(O89:T89)</f>
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="O89" s="4">
@@ -7841,7 +7841,7 @@
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4">
-        <f>SUM(O90:T90)</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="O90" s="4">
@@ -7901,7 +7901,7 @@
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4">
-        <f>SUM(O91:T91)</f>
+        <f t="shared" si="1"/>
         <v>305</v>
       </c>
       <c r="O91" s="4">
@@ -7963,7 +7963,7 @@
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4">
-        <f>SUM(O92:T92)</f>
+        <f t="shared" si="1"/>
         <v>525</v>
       </c>
       <c r="O92" s="4">
@@ -8025,7 +8025,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4">
-        <f>SUM(O93:T93)</f>
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
       <c r="O93" s="4">
@@ -8087,7 +8087,7 @@
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4">
-        <f>SUM(O94:T94)</f>
+        <f t="shared" si="1"/>
         <v>405</v>
       </c>
       <c r="O94" s="4">
@@ -8149,7 +8149,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4">
-        <f>SUM(O95:T95)</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="O95" s="4">
@@ -8211,7 +8211,7 @@
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4">
-        <f>SUM(O96:T96)</f>
+        <f t="shared" si="1"/>
         <v>385</v>
       </c>
       <c r="O96" s="4">
@@ -8271,7 +8271,7 @@
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4">
-        <f>SUM(O97:T97)</f>
+        <f t="shared" si="1"/>
         <v>328</v>
       </c>
       <c r="O97" s="4">
@@ -8335,7 +8335,7 @@
         <v>387</v>
       </c>
       <c r="N98" s="4">
-        <f>SUM(O98:T98)</f>
+        <f t="shared" si="1"/>
         <v>483</v>
       </c>
       <c r="O98" s="4">
@@ -8395,7 +8395,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4">
-        <f>SUM(O99:T99)</f>
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="O99" s="4">
@@ -8455,7 +8455,7 @@
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4">
-        <f>SUM(O100:T100)</f>
+        <f t="shared" si="1"/>
         <v>475</v>
       </c>
       <c r="O100" s="4">
@@ -8515,7 +8515,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4">
-        <f>SUM(O101:T101)</f>
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
       <c r="O101" s="4">
@@ -8575,7 +8575,7 @@
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4">
-        <f>SUM(O102:T102)</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="O102" s="4">
@@ -8635,7 +8635,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4">
-        <f>SUM(O103:T103)</f>
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="O103" s="4">
@@ -8697,7 +8697,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4">
-        <f>SUM(O104:T104)</f>
+        <f t="shared" si="1"/>
         <v>520</v>
       </c>
       <c r="O104" s="4">
@@ -8757,7 +8757,7 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4">
-        <f>SUM(O105:T105)</f>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
       <c r="O105" s="4">
@@ -8817,7 +8817,7 @@
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4">
-        <f>SUM(O106:T106)</f>
+        <f t="shared" si="1"/>
         <v>425</v>
       </c>
       <c r="O106" s="4">
@@ -8877,7 +8877,7 @@
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4">
-        <f>SUM(O107:T107)</f>
+        <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="O107" s="4">
@@ -8937,7 +8937,7 @@
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4">
-        <f>SUM(O108:T108)</f>
+        <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="O108" s="4">
@@ -8997,7 +8997,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4">
-        <f>SUM(O109:T109)</f>
+        <f t="shared" si="1"/>
         <v>385</v>
       </c>
       <c r="O109" s="4">
@@ -9057,7 +9057,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4">
-        <f>SUM(O110:T110)</f>
+        <f t="shared" si="1"/>
         <v>340</v>
       </c>
       <c r="O110" s="4">
@@ -9117,7 +9117,7 @@
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4">
-        <f>SUM(O111:T111)</f>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="O111" s="4">
@@ -9179,7 +9179,7 @@
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4">
-        <f>SUM(O112:T112)</f>
+        <f t="shared" si="1"/>
         <v>345</v>
       </c>
       <c r="O112" s="4">
@@ -9241,7 +9241,7 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4">
-        <f>SUM(O113:T113)</f>
+        <f t="shared" si="1"/>
         <v>485</v>
       </c>
       <c r="O113" s="4">
@@ -9301,7 +9301,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4">
-        <f>SUM(O114:T114)</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="O114" s="4">
@@ -9361,7 +9361,7 @@
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4">
-        <f>SUM(O115:T115)</f>
+        <f t="shared" si="1"/>
         <v>435</v>
       </c>
       <c r="O115" s="4">
@@ -9421,7 +9421,7 @@
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4">
-        <f>SUM(O116:T116)</f>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="O116" s="4">
@@ -9481,7 +9481,7 @@
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4">
-        <f>SUM(O117:T117)</f>
+        <f t="shared" si="1"/>
         <v>295</v>
       </c>
       <c r="O117" s="4">
@@ -9541,7 +9541,7 @@
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4">
-        <f>SUM(O118:T118)</f>
+        <f t="shared" si="1"/>
         <v>440</v>
       </c>
       <c r="O118" s="4">
@@ -9601,7 +9601,7 @@
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4">
-        <f>SUM(O119:T119)</f>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
       <c r="O119" s="4">
@@ -9661,7 +9661,7 @@
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4">
-        <f>SUM(O120:T120)</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="O120" s="4">
@@ -9723,7 +9723,7 @@
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4">
-        <f>SUM(O121:T121)</f>
+        <f t="shared" si="1"/>
         <v>340</v>
       </c>
       <c r="O121" s="4">
@@ -9785,7 +9785,7 @@
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4">
-        <f>SUM(O122:T122)</f>
+        <f t="shared" si="1"/>
         <v>520</v>
       </c>
       <c r="O122" s="4">
@@ -9845,7 +9845,7 @@
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4">
-        <f>SUM(O123:T123)</f>
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="O123" s="4">
@@ -9907,7 +9907,7 @@
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4">
-        <f>SUM(O124:T124)</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="O124" s="4">
@@ -9969,7 +9969,7 @@
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4">
-        <f>SUM(O125:T125)</f>
+        <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="O125" s="4">
@@ -10029,7 +10029,7 @@
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4">
-        <f>SUM(O126:T126)</f>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="O126" s="4">
@@ -10089,7 +10089,7 @@
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4">
-        <f>SUM(O127:T127)</f>
+        <f t="shared" si="1"/>
         <v>495</v>
       </c>
       <c r="O127" s="4">
@@ -10149,7 +10149,7 @@
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4">
-        <f>SUM(O128:T128)</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="O128" s="4">
@@ -10209,7 +10209,7 @@
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4">
-        <f>SUM(O129:T129)</f>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="O129" s="4">
@@ -10269,7 +10269,7 @@
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4">
-        <f>SUM(O130:T130)</f>
+        <f t="shared" ref="N130:N193" si="2">SUM(O130:T130)</f>
         <v>200</v>
       </c>
       <c r="O130" s="4">
@@ -10331,7 +10331,7 @@
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4">
-        <f>SUM(O131:T131)</f>
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
       <c r="O131" s="4">
@@ -10393,7 +10393,7 @@
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4">
-        <f>SUM(O132:T132)</f>
+        <f t="shared" si="2"/>
         <v>535</v>
       </c>
       <c r="O132" s="4">
@@ -10453,7 +10453,7 @@
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4">
-        <f>SUM(O133:T133)</f>
+        <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="O133" s="4">
@@ -10513,7 +10513,7 @@
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4">
-        <f>SUM(O134:T134)</f>
+        <f t="shared" si="2"/>
         <v>325</v>
       </c>
       <c r="O134" s="4">
@@ -10573,7 +10573,7 @@
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4">
-        <f>SUM(O135:T135)</f>
+        <f t="shared" si="2"/>
         <v>525</v>
       </c>
       <c r="O135" s="4">
@@ -10633,7 +10633,7 @@
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4">
-        <f>SUM(O136:T136)</f>
+        <f t="shared" si="2"/>
         <v>525</v>
       </c>
       <c r="O136" s="4">
@@ -10693,7 +10693,7 @@
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4">
-        <f>SUM(O137:T137)</f>
+        <f t="shared" si="2"/>
         <v>525</v>
       </c>
       <c r="O137" s="4">
@@ -10753,7 +10753,7 @@
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4">
-        <f>SUM(O138:T138)</f>
+        <f t="shared" si="2"/>
         <v>395</v>
       </c>
       <c r="O138" s="4">
@@ -10815,7 +10815,7 @@
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4">
-        <f>SUM(O139:T139)</f>
+        <f t="shared" si="2"/>
         <v>355</v>
       </c>
       <c r="O139" s="4">
@@ -10877,7 +10877,7 @@
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4">
-        <f>SUM(O140:T140)</f>
+        <f t="shared" si="2"/>
         <v>495</v>
       </c>
       <c r="O140" s="4">
@@ -10939,7 +10939,7 @@
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4">
-        <f>SUM(O141:T141)</f>
+        <f t="shared" si="2"/>
         <v>355</v>
       </c>
       <c r="O141" s="4">
@@ -11001,7 +11001,7 @@
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4">
-        <f>SUM(O142:T142)</f>
+        <f t="shared" si="2"/>
         <v>495</v>
       </c>
       <c r="O142" s="4">
@@ -11063,7 +11063,7 @@
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4">
-        <f>SUM(O143:T143)</f>
+        <f t="shared" si="2"/>
         <v>515</v>
       </c>
       <c r="O143" s="4">
@@ -11123,7 +11123,7 @@
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4">
-        <f>SUM(O144:T144)</f>
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
       <c r="O144" s="4">
@@ -11185,7 +11185,7 @@
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4">
-        <f>SUM(O145:T145)</f>
+        <f t="shared" si="2"/>
         <v>580</v>
       </c>
       <c r="O145" s="4">
@@ -11247,7 +11247,7 @@
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4">
-        <f>SUM(O146:T146)</f>
+        <f t="shared" si="2"/>
         <v>580</v>
       </c>
       <c r="O146" s="4">
@@ -11309,7 +11309,7 @@
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4">
-        <f>SUM(O147:T147)</f>
+        <f t="shared" si="2"/>
         <v>580</v>
       </c>
       <c r="O147" s="4">
@@ -11369,7 +11369,7 @@
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4">
-        <f>SUM(O148:T148)</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="O148" s="4">
@@ -11429,7 +11429,7 @@
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
       <c r="N149" s="4">
-        <f>SUM(O149:T149)</f>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="O149" s="4">
@@ -11491,7 +11491,7 @@
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4">
-        <f>SUM(O150:T150)</f>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="O150" s="4">
@@ -11551,7 +11551,7 @@
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4">
-        <f>SUM(O151:T151)</f>
+        <f t="shared" si="2"/>
         <v>680</v>
       </c>
       <c r="O151" s="4">
@@ -11611,7 +11611,7 @@
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4">
-        <f>SUM(O152:T152)</f>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="O152" s="4">
@@ -11671,7 +11671,7 @@
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4">
-        <f>SUM(O153:T153)</f>
+        <f t="shared" si="2"/>
         <v>318</v>
       </c>
       <c r="O153" s="4">
@@ -11731,7 +11731,7 @@
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4">
-        <f>SUM(O154:T154)</f>
+        <f t="shared" si="2"/>
         <v>405</v>
       </c>
       <c r="O154" s="4">
@@ -11791,7 +11791,7 @@
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4">
-        <f>SUM(O155:T155)</f>
+        <f t="shared" si="2"/>
         <v>525</v>
       </c>
       <c r="O155" s="4">
@@ -11851,7 +11851,7 @@
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4">
-        <f>SUM(O156:T156)</f>
+        <f t="shared" si="2"/>
         <v>309</v>
       </c>
       <c r="O156" s="4">
@@ -11911,7 +11911,7 @@
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4">
-        <f>SUM(O157:T157)</f>
+        <f t="shared" si="2"/>
         <v>405</v>
       </c>
       <c r="O157" s="4">
@@ -11971,7 +11971,7 @@
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4">
-        <f>SUM(O158:T158)</f>
+        <f t="shared" si="2"/>
         <v>534</v>
       </c>
       <c r="O158" s="4">
@@ -12031,7 +12031,7 @@
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
       <c r="N159" s="4">
-        <f>SUM(O159:T159)</f>
+        <f t="shared" si="2"/>
         <v>314</v>
       </c>
       <c r="O159" s="4">
@@ -12091,7 +12091,7 @@
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4">
-        <f>SUM(O160:T160)</f>
+        <f t="shared" si="2"/>
         <v>405</v>
       </c>
       <c r="O160" s="4">
@@ -12151,7 +12151,7 @@
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
       <c r="N161" s="4">
-        <f>SUM(O161:T161)</f>
+        <f t="shared" si="2"/>
         <v>530</v>
       </c>
       <c r="O161" s="4">
@@ -12211,7 +12211,7 @@
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4">
-        <f>SUM(O162:T162)</f>
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
       <c r="O162" s="4">
@@ -12271,7 +12271,7 @@
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4">
-        <f>SUM(O163:T163)</f>
+        <f t="shared" si="2"/>
         <v>415</v>
       </c>
       <c r="O163" s="4">
@@ -12333,7 +12333,7 @@
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4">
-        <f>SUM(O164:T164)</f>
+        <f t="shared" si="2"/>
         <v>262</v>
       </c>
       <c r="O164" s="4">
@@ -12395,7 +12395,7 @@
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4">
-        <f>SUM(O165:T165)</f>
+        <f t="shared" si="2"/>
         <v>442</v>
       </c>
       <c r="O165" s="4">
@@ -12457,7 +12457,7 @@
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4">
-        <f>SUM(O166:T166)</f>
+        <f t="shared" si="2"/>
         <v>265</v>
       </c>
       <c r="O166" s="4">
@@ -12519,7 +12519,7 @@
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
       <c r="N167" s="4">
-        <f>SUM(O167:T167)</f>
+        <f t="shared" si="2"/>
         <v>390</v>
       </c>
       <c r="O167" s="4">
@@ -12581,7 +12581,7 @@
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
       <c r="N168" s="4">
-        <f>SUM(O168:T168)</f>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="O168" s="4">
@@ -12643,7 +12643,7 @@
       <c r="L169" s="4"/>
       <c r="M169" s="4"/>
       <c r="N169" s="4">
-        <f>SUM(O169:T169)</f>
+        <f t="shared" si="2"/>
         <v>390</v>
       </c>
       <c r="O169" s="4">
@@ -12705,7 +12705,7 @@
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4">
-        <f>SUM(O170:T170)</f>
+        <f t="shared" si="2"/>
         <v>535</v>
       </c>
       <c r="O170" s="4">
@@ -12767,7 +12767,7 @@
       <c r="L171" s="4"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4">
-        <f>SUM(O171:T171)</f>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="O171" s="4">
@@ -12829,7 +12829,7 @@
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4">
-        <f>SUM(O172:T172)</f>
+        <f t="shared" si="2"/>
         <v>460</v>
       </c>
       <c r="O172" s="4">
@@ -12889,7 +12889,7 @@
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
       <c r="N173" s="4">
-        <f>SUM(O173:T173)</f>
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
       <c r="O173" s="4">
@@ -12949,7 +12949,7 @@
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
       <c r="N174" s="4">
-        <f>SUM(O174:T174)</f>
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
       <c r="O174" s="4">
@@ -13009,7 +13009,7 @@
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
       <c r="N175" s="4">
-        <f>SUM(O175:T175)</f>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="O175" s="4">
@@ -13069,7 +13069,7 @@
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4">
-        <f>SUM(O176:T176)</f>
+        <f t="shared" si="2"/>
         <v>245</v>
       </c>
       <c r="O176" s="4">
@@ -13129,7 +13129,7 @@
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
       <c r="N177" s="4">
-        <f>SUM(O177:T177)</f>
+        <f t="shared" si="2"/>
         <v>405</v>
       </c>
       <c r="O177" s="4">
@@ -13191,7 +13191,7 @@
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4">
-        <f>SUM(O178:T178)</f>
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
       <c r="O178" s="4">
@@ -13253,7 +13253,7 @@
       <c r="L179" s="4"/>
       <c r="M179" s="4"/>
       <c r="N179" s="4">
-        <f>SUM(O179:T179)</f>
+        <f t="shared" si="2"/>
         <v>470</v>
       </c>
       <c r="O179" s="4">
@@ -13313,7 +13313,7 @@
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4">
-        <f>SUM(O180:T180)</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="O180" s="4">
@@ -13373,7 +13373,7 @@
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4">
-        <f>SUM(O181:T181)</f>
+        <f t="shared" si="2"/>
         <v>365</v>
       </c>
       <c r="O181" s="4">
@@ -13433,7 +13433,7 @@
       <c r="L182" s="4"/>
       <c r="M182" s="4"/>
       <c r="N182" s="4">
-        <f>SUM(O182:T182)</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="O182" s="4">
@@ -13493,7 +13493,7 @@
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4">
-        <f>SUM(O183:T183)</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="O183" s="4">
@@ -13553,7 +13553,7 @@
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4">
-        <f>SUM(O184:T184)</f>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="O184" s="4">
@@ -13613,7 +13613,7 @@
       <c r="L185" s="4"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4">
-        <f>SUM(O185:T185)</f>
+        <f t="shared" si="2"/>
         <v>410</v>
       </c>
       <c r="O185" s="4">
@@ -13673,7 +13673,7 @@
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
       <c r="N186" s="4">
-        <f>SUM(O186:T186)</f>
+        <f t="shared" si="2"/>
         <v>410</v>
       </c>
       <c r="O186" s="4">
@@ -13733,7 +13733,7 @@
       <c r="L187" s="4"/>
       <c r="M187" s="4"/>
       <c r="N187" s="4">
-        <f>SUM(O187:T187)</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="O187" s="4">
@@ -13795,7 +13795,7 @@
       <c r="L188" s="4"/>
       <c r="M188" s="4"/>
       <c r="N188" s="4">
-        <f>SUM(O188:T188)</f>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="O188" s="4">
@@ -13830,7 +13830,9 @@
       <c r="C189" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D189" s="4"/>
+      <c r="D189" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="E189" s="4">
         <v>340</v>
       </c>
@@ -13855,7 +13857,7 @@
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
       <c r="N189" s="4">
-        <f>SUM(O189:T189)</f>
+        <f t="shared" si="2"/>
         <v>340</v>
       </c>
       <c r="O189" s="4">
@@ -13890,7 +13892,9 @@
       <c r="C190" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D190" s="4"/>
+      <c r="D190" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="E190" s="4">
         <v>450</v>
       </c>
@@ -13915,7 +13919,7 @@
       <c r="L190" s="4"/>
       <c r="M190" s="4"/>
       <c r="N190" s="4">
-        <f>SUM(O190:T190)</f>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="O190" s="4">
@@ -13975,7 +13979,7 @@
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4">
-        <f>SUM(O191:T191)</f>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="O191" s="4">
@@ -14035,7 +14039,7 @@
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
       <c r="N192" s="4">
-        <f>SUM(O192:T192)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="O192" s="4">
@@ -14095,7 +14099,7 @@
       <c r="L193" s="4"/>
       <c r="M193" s="4"/>
       <c r="N193" s="4">
-        <f>SUM(O193:T193)</f>
+        <f t="shared" si="2"/>
         <v>425</v>
       </c>
       <c r="O193" s="4">
@@ -14157,7 +14161,7 @@
       <c r="L194" s="4"/>
       <c r="M194" s="4"/>
       <c r="N194" s="4">
-        <f>SUM(O194:T194)</f>
+        <f t="shared" ref="N194:N257" si="3">SUM(O194:T194)</f>
         <v>390</v>
       </c>
       <c r="O194" s="4">
@@ -14219,7 +14223,7 @@
       <c r="L195" s="4"/>
       <c r="M195" s="4"/>
       <c r="N195" s="4">
-        <f>SUM(O195:T195)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="O195" s="4">
@@ -14281,7 +14285,7 @@
       <c r="L196" s="4"/>
       <c r="M196" s="4"/>
       <c r="N196" s="4">
-        <f>SUM(O196:T196)</f>
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
       <c r="O196" s="4">
@@ -14341,7 +14345,7 @@
       <c r="L197" s="4"/>
       <c r="M197" s="4"/>
       <c r="N197" s="4">
-        <f>SUM(O197:T197)</f>
+        <f t="shared" si="3"/>
         <v>525</v>
       </c>
       <c r="O197" s="4">
@@ -14401,7 +14405,7 @@
       <c r="L198" s="4"/>
       <c r="M198" s="4"/>
       <c r="N198" s="4">
-        <f>SUM(O198:T198)</f>
+        <f t="shared" si="3"/>
         <v>525</v>
       </c>
       <c r="O198" s="4">
@@ -14463,7 +14467,7 @@
       <c r="L199" s="4"/>
       <c r="M199" s="4"/>
       <c r="N199" s="4">
-        <f>SUM(O199:T199)</f>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="O199" s="4">
@@ -14525,7 +14529,7 @@
       <c r="L200" s="4"/>
       <c r="M200" s="4"/>
       <c r="N200" s="4">
-        <f>SUM(O200:T200)</f>
+        <f t="shared" si="3"/>
         <v>490</v>
       </c>
       <c r="O200" s="4">
@@ -14585,7 +14589,7 @@
       <c r="L201" s="4"/>
       <c r="M201" s="4"/>
       <c r="N201" s="4">
-        <f>SUM(O201:T201)</f>
+        <f t="shared" si="3"/>
         <v>435</v>
       </c>
       <c r="O201" s="4">
@@ -14645,7 +14649,7 @@
       <c r="L202" s="4"/>
       <c r="M202" s="4"/>
       <c r="N202" s="4">
-        <f>SUM(O202:T202)</f>
+        <f t="shared" si="3"/>
         <v>336</v>
       </c>
       <c r="O202" s="4">
@@ -14705,7 +14709,7 @@
       <c r="L203" s="4"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4">
-        <f>SUM(O203:T203)</f>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="O203" s="4">
@@ -14767,7 +14771,7 @@
       <c r="L204" s="4"/>
       <c r="M204" s="4"/>
       <c r="N204" s="4">
-        <f>SUM(O204:T204)</f>
+        <f t="shared" si="3"/>
         <v>455</v>
       </c>
       <c r="O204" s="4">
@@ -14827,7 +14831,7 @@
       <c r="L205" s="4"/>
       <c r="M205" s="4"/>
       <c r="N205" s="4">
-        <f>SUM(O205:T205)</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="O205" s="4">
@@ -14889,7 +14893,7 @@
       <c r="L206" s="4"/>
       <c r="M206" s="4"/>
       <c r="N206" s="4">
-        <f>SUM(O206:T206)</f>
+        <f t="shared" si="3"/>
         <v>465</v>
       </c>
       <c r="O206" s="4">
@@ -14949,7 +14953,7 @@
       <c r="L207" s="4"/>
       <c r="M207" s="4"/>
       <c r="N207" s="4">
-        <f>SUM(O207:T207)</f>
+        <f t="shared" si="3"/>
         <v>415</v>
       </c>
       <c r="O207" s="4">
@@ -15011,7 +15015,7 @@
       <c r="L208" s="4"/>
       <c r="M208" s="4"/>
       <c r="N208" s="4">
-        <f>SUM(O208:T208)</f>
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
       <c r="O208" s="4">
@@ -15073,7 +15077,7 @@
       <c r="L209" s="4"/>
       <c r="M209" s="4"/>
       <c r="N209" s="4">
-        <f>SUM(O209:T209)</f>
+        <f t="shared" si="3"/>
         <v>510</v>
       </c>
       <c r="O209" s="4">
@@ -15133,7 +15137,7 @@
       <c r="L210" s="4"/>
       <c r="M210" s="4"/>
       <c r="N210" s="4">
-        <f>SUM(O210:T210)</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="O210" s="4">
@@ -15193,7 +15197,7 @@
       <c r="L211" s="4"/>
       <c r="M211" s="4"/>
       <c r="N211" s="4">
-        <f>SUM(O211:T211)</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="O211" s="4">
@@ -15255,7 +15259,7 @@
       <c r="L212" s="4"/>
       <c r="M212" s="4"/>
       <c r="N212" s="4">
-        <f>SUM(O212:T212)</f>
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
       <c r="O212" s="4">
@@ -15317,7 +15321,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
       <c r="N213" s="4">
-        <f>SUM(O213:T213)</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="O213" s="4">
@@ -15379,7 +15383,7 @@
       <c r="L214" s="4"/>
       <c r="M214" s="4"/>
       <c r="N214" s="4">
-        <f>SUM(O214:T214)</f>
+        <f t="shared" si="3"/>
         <v>505</v>
       </c>
       <c r="O214" s="4">
@@ -15441,7 +15445,7 @@
       <c r="L215" s="4"/>
       <c r="M215" s="4"/>
       <c r="N215" s="4">
-        <f>SUM(O215:T215)</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="O215" s="4">
@@ -15503,7 +15507,7 @@
       <c r="L216" s="4"/>
       <c r="M216" s="4"/>
       <c r="N216" s="4">
-        <f>SUM(O216:T216)</f>
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
       <c r="O216" s="4">
@@ -15563,7 +15567,7 @@
       <c r="L217" s="4"/>
       <c r="M217" s="4"/>
       <c r="N217" s="4">
-        <f>SUM(O217:T217)</f>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="O217" s="4">
@@ -15623,7 +15627,7 @@
       <c r="L218" s="4"/>
       <c r="M218" s="4"/>
       <c r="N218" s="4">
-        <f>SUM(O218:T218)</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="O218" s="4">
@@ -15683,7 +15687,7 @@
       <c r="L219" s="4"/>
       <c r="M219" s="4"/>
       <c r="N219" s="4">
-        <f>SUM(O219:T219)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="O219" s="4">
@@ -15745,7 +15749,7 @@
       <c r="L220" s="4"/>
       <c r="M220" s="4"/>
       <c r="N220" s="4">
-        <f>SUM(O220:T220)</f>
+        <f t="shared" si="3"/>
         <v>410</v>
       </c>
       <c r="O220" s="4">
@@ -15807,7 +15811,7 @@
       <c r="L221" s="4"/>
       <c r="M221" s="4"/>
       <c r="N221" s="4">
-        <f>SUM(O221:T221)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="O221" s="4">
@@ -15869,7 +15873,7 @@
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
       <c r="N222" s="4">
-        <f>SUM(O222:T222)</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="O222" s="4">
@@ -15931,7 +15935,7 @@
       <c r="L223" s="4"/>
       <c r="M223" s="4"/>
       <c r="N223" s="4">
-        <f>SUM(O223:T223)</f>
+        <f t="shared" si="3"/>
         <v>380</v>
       </c>
       <c r="O223" s="4">
@@ -15991,7 +15995,7 @@
       <c r="L224" s="4"/>
       <c r="M224" s="4"/>
       <c r="N224" s="4">
-        <f>SUM(O224:T224)</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="O224" s="4">
@@ -16051,7 +16055,7 @@
       <c r="L225" s="4"/>
       <c r="M225" s="4"/>
       <c r="N225" s="4">
-        <f>SUM(O225:T225)</f>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
       <c r="O225" s="4">
@@ -16113,7 +16117,7 @@
       <c r="L226" s="4"/>
       <c r="M226" s="4"/>
       <c r="N226" s="4">
-        <f>SUM(O226:T226)</f>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="O226" s="4">
@@ -16175,7 +16179,7 @@
       <c r="L227" s="4"/>
       <c r="M227" s="4"/>
       <c r="N227" s="4">
-        <f>SUM(O227:T227)</f>
+        <f t="shared" si="3"/>
         <v>465</v>
       </c>
       <c r="O227" s="4">
@@ -16237,7 +16241,7 @@
       <c r="L228" s="4"/>
       <c r="M228" s="4"/>
       <c r="N228" s="4">
-        <f>SUM(O228:T228)</f>
+        <f t="shared" si="3"/>
         <v>465</v>
       </c>
       <c r="O228" s="4">
@@ -16299,7 +16303,7 @@
       <c r="L229" s="4"/>
       <c r="M229" s="4"/>
       <c r="N229" s="4">
-        <f>SUM(O229:T229)</f>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="O229" s="4">
@@ -16361,7 +16365,7 @@
       <c r="L230" s="4"/>
       <c r="M230" s="4"/>
       <c r="N230" s="4">
-        <f>SUM(O230:T230)</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="O230" s="4">
@@ -16423,7 +16427,7 @@
       <c r="L231" s="4"/>
       <c r="M231" s="4"/>
       <c r="N231" s="4">
-        <f>SUM(O231:T231)</f>
+        <f t="shared" si="3"/>
         <v>540</v>
       </c>
       <c r="O231" s="4">
@@ -16483,7 +16487,7 @@
       <c r="L232" s="4"/>
       <c r="M232" s="4"/>
       <c r="N232" s="4">
-        <f>SUM(O232:T232)</f>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="O232" s="4">
@@ -16543,7 +16547,7 @@
       <c r="L233" s="4"/>
       <c r="M233" s="4"/>
       <c r="N233" s="4">
-        <f>SUM(O233:T233)</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="O233" s="4">
@@ -16603,7 +16607,7 @@
       <c r="L234" s="4"/>
       <c r="M234" s="4"/>
       <c r="N234" s="4">
-        <f>SUM(O234:T234)</f>
+        <f t="shared" si="3"/>
         <v>515</v>
       </c>
       <c r="O234" s="4">
@@ -16663,7 +16667,7 @@
       <c r="L235" s="4"/>
       <c r="M235" s="4"/>
       <c r="N235" s="4">
-        <f>SUM(O235:T235)</f>
+        <f t="shared" si="3"/>
         <v>465</v>
       </c>
       <c r="O235" s="4">
@@ -16723,7 +16727,7 @@
       <c r="L236" s="4"/>
       <c r="M236" s="4"/>
       <c r="N236" s="4">
-        <f>SUM(O236:T236)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="O236" s="4">
@@ -16783,7 +16787,7 @@
       <c r="L237" s="4"/>
       <c r="M237" s="4"/>
       <c r="N237" s="4">
-        <f>SUM(O237:T237)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="O237" s="4">
@@ -16843,7 +16847,7 @@
       <c r="L238" s="4"/>
       <c r="M238" s="4"/>
       <c r="N238" s="4">
-        <f>SUM(O238:T238)</f>
+        <f t="shared" si="3"/>
         <v>455</v>
       </c>
       <c r="O238" s="4">
@@ -16905,7 +16909,7 @@
       <c r="L239" s="4"/>
       <c r="M239" s="4"/>
       <c r="N239" s="4">
-        <f>SUM(O239:T239)</f>
+        <f t="shared" si="3"/>
         <v>305</v>
       </c>
       <c r="O239" s="4">
@@ -16965,7 +16969,7 @@
       <c r="L240" s="4"/>
       <c r="M240" s="4"/>
       <c r="N240" s="4">
-        <f>SUM(O240:T240)</f>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="O240" s="4">
@@ -17025,7 +17029,7 @@
       <c r="L241" s="4"/>
       <c r="M241" s="4"/>
       <c r="N241" s="4">
-        <f>SUM(O241:T241)</f>
+        <f t="shared" si="3"/>
         <v>365</v>
       </c>
       <c r="O241" s="4">
@@ -17085,7 +17089,7 @@
       <c r="L242" s="4"/>
       <c r="M242" s="4"/>
       <c r="N242" s="4">
-        <f>SUM(O242:T242)</f>
+        <f t="shared" si="3"/>
         <v>490</v>
       </c>
       <c r="O242" s="4">
@@ -17145,7 +17149,7 @@
       <c r="L243" s="4"/>
       <c r="M243" s="4"/>
       <c r="N243" s="4">
-        <f>SUM(O243:T243)</f>
+        <f t="shared" si="3"/>
         <v>540</v>
       </c>
       <c r="O243" s="4">
@@ -17205,7 +17209,7 @@
       <c r="L244" s="4"/>
       <c r="M244" s="4"/>
       <c r="N244" s="4">
-        <f>SUM(O244:T244)</f>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="O244" s="4">
@@ -17265,7 +17269,7 @@
       <c r="L245" s="4"/>
       <c r="M245" s="4"/>
       <c r="N245" s="4">
-        <f>SUM(O245:T245)</f>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="O245" s="4">
@@ -17325,7 +17329,7 @@
       <c r="L246" s="4"/>
       <c r="M246" s="4"/>
       <c r="N246" s="4">
-        <f>SUM(O246:T246)</f>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="O246" s="4">
@@ -17387,7 +17391,7 @@
       <c r="L247" s="4"/>
       <c r="M247" s="4"/>
       <c r="N247" s="4">
-        <f>SUM(O247:T247)</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="O247" s="4">
@@ -17449,7 +17453,7 @@
       <c r="L248" s="4"/>
       <c r="M248" s="4"/>
       <c r="N248" s="4">
-        <f>SUM(O248:T248)</f>
+        <f t="shared" si="3"/>
         <v>410</v>
       </c>
       <c r="O248" s="4">
@@ -17511,7 +17515,7 @@
       <c r="L249" s="4"/>
       <c r="M249" s="4"/>
       <c r="N249" s="4">
-        <f>SUM(O249:T249)</f>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="O249" s="4">
@@ -17573,7 +17577,7 @@
       <c r="L250" s="4"/>
       <c r="M250" s="4"/>
       <c r="N250" s="4">
-        <f>SUM(O250:T250)</f>
+        <f t="shared" si="3"/>
         <v>680</v>
       </c>
       <c r="O250" s="4">
@@ -17635,7 +17639,7 @@
       <c r="L251" s="4"/>
       <c r="M251" s="4"/>
       <c r="N251" s="4">
-        <f>SUM(O251:T251)</f>
+        <f t="shared" si="3"/>
         <v>680</v>
       </c>
       <c r="O251" s="4">
@@ -17697,7 +17701,7 @@
       <c r="L252" s="4"/>
       <c r="M252" s="4"/>
       <c r="N252" s="4">
-        <f>SUM(O252:T252)</f>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="O252" s="4">
@@ -17757,7 +17761,7 @@
       <c r="L253" s="4"/>
       <c r="M253" s="4"/>
       <c r="N253" s="4">
-        <f>SUM(O253:T253)</f>
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="O253" s="4">
@@ -17817,7 +17821,7 @@
       <c r="L254" s="4"/>
       <c r="M254" s="4"/>
       <c r="N254" s="4">
-        <f>SUM(O254:T254)</f>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="O254" s="4">
@@ -17877,7 +17881,7 @@
       <c r="L255" s="4"/>
       <c r="M255" s="4"/>
       <c r="N255" s="4">
-        <f>SUM(O255:T255)</f>
+        <f t="shared" si="3"/>
         <v>530</v>
       </c>
       <c r="O255" s="4">
@@ -17937,7 +17941,7 @@
       <c r="L256" s="4"/>
       <c r="M256" s="4"/>
       <c r="N256" s="4">
-        <f>SUM(O256:T256)</f>
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="O256" s="4">
@@ -17999,7 +18003,7 @@
       <c r="L257" s="4"/>
       <c r="M257" s="4"/>
       <c r="N257" s="4">
-        <f>SUM(O257:T257)</f>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="O257" s="4">
@@ -18061,7 +18065,7 @@
       <c r="L258" s="4"/>
       <c r="M258" s="4"/>
       <c r="N258" s="4">
-        <f>SUM(O258:T258)</f>
+        <f t="shared" ref="N258:N321" si="4">SUM(O258:T258)</f>
         <v>530</v>
       </c>
       <c r="O258" s="4">
@@ -18121,7 +18125,7 @@
       <c r="L259" s="4"/>
       <c r="M259" s="4"/>
       <c r="N259" s="4">
-        <f>SUM(O259:T259)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="O259" s="4">
@@ -18183,7 +18187,7 @@
       <c r="L260" s="4"/>
       <c r="M260" s="4"/>
       <c r="N260" s="4">
-        <f>SUM(O260:T260)</f>
+        <f t="shared" si="4"/>
         <v>405</v>
       </c>
       <c r="O260" s="4">
@@ -18245,7 +18249,7 @@
       <c r="L261" s="4"/>
       <c r="M261" s="4"/>
       <c r="N261" s="4">
-        <f>SUM(O261:T261)</f>
+        <f t="shared" si="4"/>
         <v>535</v>
       </c>
       <c r="O261" s="4">
@@ -18305,7 +18309,7 @@
       <c r="L262" s="4"/>
       <c r="M262" s="4"/>
       <c r="N262" s="4">
-        <f>SUM(O262:T262)</f>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="O262" s="4">
@@ -18365,7 +18369,7 @@
       <c r="L263" s="4"/>
       <c r="M263" s="4"/>
       <c r="N263" s="4">
-        <f>SUM(O263:T263)</f>
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="O263" s="4">
@@ -18425,7 +18429,7 @@
       <c r="L264" s="4"/>
       <c r="M264" s="4"/>
       <c r="N264" s="4">
-        <f>SUM(O264:T264)</f>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="O264" s="4">
@@ -18485,7 +18489,7 @@
       <c r="L265" s="4"/>
       <c r="M265" s="4"/>
       <c r="N265" s="4">
-        <f>SUM(O265:T265)</f>
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="O265" s="4">
@@ -18545,7 +18549,7 @@
       <c r="L266" s="4"/>
       <c r="M266" s="4"/>
       <c r="N266" s="4">
-        <f>SUM(O266:T266)</f>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="O266" s="4">
@@ -18605,7 +18609,7 @@
       <c r="L267" s="4"/>
       <c r="M267" s="4"/>
       <c r="N267" s="4">
-        <f>SUM(O267:T267)</f>
+        <f t="shared" si="4"/>
         <v>205</v>
       </c>
       <c r="O267" s="4">
@@ -18667,7 +18671,7 @@
       <c r="L268" s="4"/>
       <c r="M268" s="4"/>
       <c r="N268" s="4">
-        <f>SUM(O268:T268)</f>
+        <f t="shared" si="4"/>
         <v>385</v>
       </c>
       <c r="O268" s="4">
@@ -18727,7 +18731,7 @@
       <c r="L269" s="4"/>
       <c r="M269" s="4"/>
       <c r="N269" s="4">
-        <f>SUM(O269:T269)</f>
+        <f t="shared" si="4"/>
         <v>205</v>
       </c>
       <c r="O269" s="4">
@@ -18789,7 +18793,7 @@
       <c r="L270" s="4"/>
       <c r="M270" s="4"/>
       <c r="N270" s="4">
-        <f>SUM(O270:T270)</f>
+        <f t="shared" si="4"/>
         <v>385</v>
       </c>
       <c r="O270" s="4">
@@ -18851,7 +18855,7 @@
       <c r="L271" s="4"/>
       <c r="M271" s="4"/>
       <c r="N271" s="4">
-        <f>SUM(O271:T271)</f>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="O271" s="4">
@@ -18913,7 +18917,7 @@
       <c r="L272" s="4"/>
       <c r="M272" s="4"/>
       <c r="N272" s="4">
-        <f>SUM(O272:T272)</f>
+        <f t="shared" si="4"/>
         <v>340</v>
       </c>
       <c r="O272" s="4">
@@ -18975,7 +18979,7 @@
       <c r="L273" s="4"/>
       <c r="M273" s="4"/>
       <c r="N273" s="4">
-        <f>SUM(O273:T273)</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="O273" s="4">
@@ -19035,7 +19039,7 @@
       <c r="L274" s="4"/>
       <c r="M274" s="4"/>
       <c r="N274" s="4">
-        <f>SUM(O274:T274)</f>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="O274" s="4">
@@ -19097,7 +19101,7 @@
       <c r="L275" s="4"/>
       <c r="M275" s="4"/>
       <c r="N275" s="4">
-        <f>SUM(O275:T275)</f>
+        <f t="shared" si="4"/>
         <v>340</v>
       </c>
       <c r="O275" s="4">
@@ -19159,7 +19163,7 @@
       <c r="L276" s="4"/>
       <c r="M276" s="4"/>
       <c r="N276" s="4">
-        <f>SUM(O276:T276)</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="O276" s="4">
@@ -19221,7 +19225,7 @@
       <c r="L277" s="4"/>
       <c r="M277" s="4"/>
       <c r="N277" s="4">
-        <f>SUM(O277:T277)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="O277" s="4">
@@ -19283,7 +19287,7 @@
       <c r="L278" s="4"/>
       <c r="M278" s="4"/>
       <c r="N278" s="4">
-        <f>SUM(O278:T278)</f>
+        <f t="shared" si="4"/>
         <v>430</v>
       </c>
       <c r="O278" s="4">
@@ -19345,7 +19349,7 @@
       <c r="L279" s="4"/>
       <c r="M279" s="4"/>
       <c r="N279" s="4">
-        <f>SUM(O279:T279)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="O279" s="4">
@@ -19407,7 +19411,7 @@
       <c r="L280" s="4"/>
       <c r="M280" s="4"/>
       <c r="N280" s="4">
-        <f>SUM(O280:T280)</f>
+        <f t="shared" si="4"/>
         <v>430</v>
       </c>
       <c r="O280" s="4">
@@ -19467,7 +19471,7 @@
       <c r="L281" s="4"/>
       <c r="M281" s="4"/>
       <c r="N281" s="4">
-        <f>SUM(O281:T281)</f>
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
       <c r="O281" s="4">
@@ -19527,7 +19531,7 @@
       <c r="L282" s="4"/>
       <c r="M282" s="4"/>
       <c r="N282" s="4">
-        <f>SUM(O282:T282)</f>
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="O282" s="4">
@@ -19587,7 +19591,7 @@
       <c r="L283" s="4"/>
       <c r="M283" s="4"/>
       <c r="N283" s="4">
-        <f>SUM(O283:T283)</f>
+        <f t="shared" si="4"/>
         <v>518</v>
       </c>
       <c r="O283" s="4">
@@ -19649,7 +19653,7 @@
       <c r="L284" s="4"/>
       <c r="M284" s="4"/>
       <c r="N284" s="4">
-        <f>SUM(O284:T284)</f>
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="O284" s="4">
@@ -19711,7 +19715,7 @@
       <c r="L285" s="4"/>
       <c r="M285" s="4"/>
       <c r="N285" s="4">
-        <f>SUM(O285:T285)</f>
+        <f t="shared" si="4"/>
         <v>414</v>
       </c>
       <c r="O285" s="4">
@@ -19771,7 +19775,7 @@
       <c r="L286" s="4"/>
       <c r="M286" s="4"/>
       <c r="N286" s="4">
-        <f>SUM(O286:T286)</f>
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="O286" s="4">
@@ -19833,7 +19837,7 @@
       <c r="L287" s="4"/>
       <c r="M287" s="4"/>
       <c r="N287" s="4">
-        <f>SUM(O287:T287)</f>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
       <c r="O287" s="4">
@@ -19893,7 +19897,7 @@
       <c r="L288" s="4"/>
       <c r="M288" s="4"/>
       <c r="N288" s="4">
-        <f>SUM(O288:T288)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="O288" s="4">
@@ -19953,7 +19957,7 @@
       <c r="L289" s="4"/>
       <c r="M289" s="4"/>
       <c r="N289" s="4">
-        <f>SUM(O289:T289)</f>
+        <f t="shared" si="4"/>
         <v>440</v>
       </c>
       <c r="O289" s="4">
@@ -20013,7 +20017,7 @@
       <c r="L290" s="4"/>
       <c r="M290" s="4"/>
       <c r="N290" s="4">
-        <f>SUM(O290:T290)</f>
+        <f t="shared" si="4"/>
         <v>670</v>
       </c>
       <c r="O290" s="4">
@@ -20075,7 +20079,7 @@
       <c r="L291" s="4"/>
       <c r="M291" s="4"/>
       <c r="N291" s="4">
-        <f>SUM(O291:T291)</f>
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="O291" s="4">
@@ -20137,7 +20141,7 @@
       <c r="L292" s="4"/>
       <c r="M292" s="4"/>
       <c r="N292" s="4">
-        <f>SUM(O292:T292)</f>
+        <f t="shared" si="4"/>
         <v>456</v>
       </c>
       <c r="O292" s="4">
@@ -20199,7 +20203,7 @@
       <c r="L293" s="4"/>
       <c r="M293" s="4"/>
       <c r="N293" s="4">
-        <f>SUM(O293:T293)</f>
+        <f t="shared" si="4"/>
         <v>236</v>
       </c>
       <c r="O293" s="4">
@@ -20259,7 +20263,7 @@
       <c r="L294" s="4"/>
       <c r="M294" s="4"/>
       <c r="N294" s="4">
-        <f>SUM(O294:T294)</f>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="O294" s="4">
@@ -20319,7 +20323,7 @@
       <c r="L295" s="4"/>
       <c r="M295" s="4"/>
       <c r="N295" s="4">
-        <f>SUM(O295:T295)</f>
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
       <c r="O295" s="4">
@@ -20379,7 +20383,7 @@
       <c r="L296" s="4"/>
       <c r="M296" s="4"/>
       <c r="N296" s="4">
-        <f>SUM(O296:T296)</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="O296" s="4">
@@ -20439,7 +20443,7 @@
       <c r="L297" s="4"/>
       <c r="M297" s="4"/>
       <c r="N297" s="4">
-        <f>SUM(O297:T297)</f>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="O297" s="4">
@@ -20499,7 +20503,7 @@
       <c r="L298" s="4"/>
       <c r="M298" s="4"/>
       <c r="N298" s="4">
-        <f>SUM(O298:T298)</f>
+        <f t="shared" si="4"/>
         <v>474</v>
       </c>
       <c r="O298" s="4">
@@ -20559,7 +20563,7 @@
       <c r="L299" s="4"/>
       <c r="M299" s="4"/>
       <c r="N299" s="4">
-        <f>SUM(O299:T299)</f>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="O299" s="4">
@@ -20619,7 +20623,7 @@
       <c r="L300" s="4"/>
       <c r="M300" s="4"/>
       <c r="N300" s="4">
-        <f>SUM(O300:T300)</f>
+        <f t="shared" si="4"/>
         <v>375</v>
       </c>
       <c r="O300" s="4">
@@ -20679,7 +20683,7 @@
       <c r="L301" s="4"/>
       <c r="M301" s="4"/>
       <c r="N301" s="4">
-        <f>SUM(O301:T301)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="O301" s="4">
@@ -20739,7 +20743,7 @@
       <c r="L302" s="4"/>
       <c r="M302" s="4"/>
       <c r="N302" s="4">
-        <f>SUM(O302:T302)</f>
+        <f t="shared" si="4"/>
         <v>380</v>
       </c>
       <c r="O302" s="4">
@@ -20801,7 +20805,7 @@
       <c r="L303" s="4"/>
       <c r="M303" s="4"/>
       <c r="N303" s="4">
-        <f>SUM(O303:T303)</f>
+        <f t="shared" si="4"/>
         <v>380</v>
       </c>
       <c r="O303" s="4">
@@ -20861,7 +20865,7 @@
       <c r="L304" s="4"/>
       <c r="M304" s="4"/>
       <c r="N304" s="4">
-        <f>SUM(O304:T304)</f>
+        <f t="shared" si="4"/>
         <v>380</v>
       </c>
       <c r="O304" s="4">
@@ -20923,7 +20927,7 @@
       <c r="L305" s="4"/>
       <c r="M305" s="4"/>
       <c r="N305" s="4">
-        <f>SUM(O305:T305)</f>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="O305" s="4">
@@ -20985,7 +20989,7 @@
       <c r="L306" s="4"/>
       <c r="M306" s="4"/>
       <c r="N306" s="4">
-        <f>SUM(O306:T306)</f>
+        <f t="shared" si="4"/>
         <v>430</v>
       </c>
       <c r="O306" s="4">
@@ -21047,7 +21051,7 @@
       <c r="L307" s="4"/>
       <c r="M307" s="4"/>
       <c r="N307" s="4">
-        <f>SUM(O307:T307)</f>
+        <f t="shared" si="4"/>
         <v>530</v>
       </c>
       <c r="O307" s="4">
@@ -21109,7 +21113,7 @@
       <c r="L308" s="4"/>
       <c r="M308" s="4"/>
       <c r="N308" s="4">
-        <f>SUM(O308:T308)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="O308" s="4">
@@ -21171,7 +21175,7 @@
       <c r="L309" s="4"/>
       <c r="M309" s="4"/>
       <c r="N309" s="4">
-        <f>SUM(O309:T309)</f>
+        <f t="shared" si="4"/>
         <v>410</v>
       </c>
       <c r="O309" s="4">
@@ -21231,7 +21235,7 @@
       <c r="L310" s="4"/>
       <c r="M310" s="4"/>
       <c r="N310" s="4">
-        <f>SUM(O310:T310)</f>
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="O310" s="4">
@@ -21291,7 +21295,7 @@
       <c r="L311" s="4"/>
       <c r="M311" s="4"/>
       <c r="N311" s="4">
-        <f>SUM(O311:T311)</f>
+        <f t="shared" si="4"/>
         <v>475</v>
       </c>
       <c r="O311" s="4">
@@ -21351,7 +21355,7 @@
       <c r="L312" s="4"/>
       <c r="M312" s="4"/>
       <c r="N312" s="4">
-        <f>SUM(O312:T312)</f>
+        <f t="shared" si="4"/>
         <v>405</v>
       </c>
       <c r="O312" s="4">
@@ -21411,7 +21415,7 @@
       <c r="L313" s="4"/>
       <c r="M313" s="4"/>
       <c r="N313" s="4">
-        <f>SUM(O313:T313)</f>
+        <f t="shared" si="4"/>
         <v>405</v>
       </c>
       <c r="O313" s="4">
@@ -21471,7 +21475,7 @@
       <c r="L314" s="4"/>
       <c r="M314" s="4"/>
       <c r="N314" s="4">
-        <f>SUM(O314:T314)</f>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="O314" s="4">
@@ -21531,7 +21535,7 @@
       <c r="L315" s="4"/>
       <c r="M315" s="4"/>
       <c r="N315" s="4">
-        <f>SUM(O315:T315)</f>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="O315" s="4">
@@ -21593,7 +21597,7 @@
       <c r="L316" s="4"/>
       <c r="M316" s="4"/>
       <c r="N316" s="4">
-        <f>SUM(O316:T316)</f>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="O316" s="4">
@@ -21653,7 +21657,7 @@
       <c r="L317" s="4"/>
       <c r="M317" s="4"/>
       <c r="N317" s="4">
-        <f>SUM(O317:T317)</f>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="O317" s="4">
@@ -21713,7 +21717,7 @@
       <c r="L318" s="4"/>
       <c r="M318" s="4"/>
       <c r="N318" s="4">
-        <f>SUM(O318:T318)</f>
+        <f t="shared" si="4"/>
         <v>467</v>
       </c>
       <c r="O318" s="4">
@@ -21775,7 +21779,7 @@
       <c r="L319" s="4"/>
       <c r="M319" s="4"/>
       <c r="N319" s="4">
-        <f>SUM(O319:T319)</f>
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="O319" s="4">
@@ -21837,7 +21841,7 @@
       <c r="L320" s="4"/>
       <c r="M320" s="4"/>
       <c r="N320" s="4">
-        <f>SUM(O320:T320)</f>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
       <c r="O320" s="4">
@@ -21897,7 +21901,7 @@
       <c r="L321" s="4"/>
       <c r="M321" s="4"/>
       <c r="N321" s="4">
-        <f>SUM(O321:T321)</f>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="O321" s="4">
@@ -21957,7 +21961,7 @@
       <c r="L322" s="4"/>
       <c r="M322" s="4"/>
       <c r="N322" s="4">
-        <f>SUM(O322:T322)</f>
+        <f t="shared" ref="N322:N385" si="5">SUM(O322:T322)</f>
         <v>500</v>
       </c>
       <c r="O322" s="4">
@@ -22019,7 +22023,7 @@
       <c r="L323" s="4"/>
       <c r="M323" s="4"/>
       <c r="N323" s="4">
-        <f>SUM(O323:T323)</f>
+        <f t="shared" si="5"/>
         <v>305</v>
       </c>
       <c r="O323" s="4">
@@ -22081,7 +22085,7 @@
       <c r="L324" s="4"/>
       <c r="M324" s="4"/>
       <c r="N324" s="4">
-        <f>SUM(O324:T324)</f>
+        <f t="shared" si="5"/>
         <v>460</v>
       </c>
       <c r="O324" s="4">
@@ -22141,7 +22145,7 @@
       <c r="L325" s="4"/>
       <c r="M325" s="4"/>
       <c r="N325" s="4">
-        <f>SUM(O325:T325)</f>
+        <f t="shared" si="5"/>
         <v>470</v>
       </c>
       <c r="O325" s="4">
@@ -22201,7 +22205,7 @@
       <c r="L326" s="4"/>
       <c r="M326" s="4"/>
       <c r="N326" s="4">
-        <f>SUM(O326:T326)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="O326" s="4">
@@ -22261,7 +22265,7 @@
       <c r="L327" s="4"/>
       <c r="M327" s="4"/>
       <c r="N327" s="4">
-        <f>SUM(O327:T327)</f>
+        <f t="shared" si="5"/>
         <v>470</v>
       </c>
       <c r="O327" s="4">
@@ -22321,7 +22325,7 @@
       <c r="L328" s="4"/>
       <c r="M328" s="4"/>
       <c r="N328" s="4">
-        <f>SUM(O328:T328)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="O328" s="4">
@@ -22381,7 +22385,7 @@
       <c r="L329" s="4"/>
       <c r="M329" s="4"/>
       <c r="N329" s="4">
-        <f>SUM(O329:T329)</f>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="O329" s="4">
@@ -22443,7 +22447,7 @@
       <c r="L330" s="4"/>
       <c r="M330" s="4"/>
       <c r="N330" s="4">
-        <f>SUM(O330:T330)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="O330" s="4">
@@ -22505,7 +22509,7 @@
       <c r="L331" s="4"/>
       <c r="M331" s="4"/>
       <c r="N331" s="4">
-        <f>SUM(O331:T331)</f>
+        <f t="shared" si="5"/>
         <v>520</v>
       </c>
       <c r="O331" s="4">
@@ -22567,7 +22571,7 @@
       <c r="L332" s="4"/>
       <c r="M332" s="4"/>
       <c r="N332" s="4">
-        <f>SUM(O332:T332)</f>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="O332" s="4">
@@ -22629,7 +22633,7 @@
       <c r="L333" s="4"/>
       <c r="M333" s="4"/>
       <c r="N333" s="4">
-        <f>SUM(O333:T333)</f>
+        <f t="shared" si="5"/>
         <v>475</v>
       </c>
       <c r="O333" s="4">
@@ -22691,7 +22695,7 @@
       <c r="L334" s="4"/>
       <c r="M334" s="4"/>
       <c r="N334" s="4">
-        <f>SUM(O334:T334)</f>
+        <f t="shared" si="5"/>
         <v>310</v>
       </c>
       <c r="O334" s="4">
@@ -22753,7 +22757,7 @@
       <c r="L335" s="4"/>
       <c r="M335" s="4"/>
       <c r="N335" s="4">
-        <f>SUM(O335:T335)</f>
+        <f t="shared" si="5"/>
         <v>490</v>
       </c>
       <c r="O335" s="4">
@@ -22813,7 +22817,7 @@
       <c r="L336" s="4"/>
       <c r="M336" s="4"/>
       <c r="N336" s="4">
-        <f>SUM(O336:T336)</f>
+        <f t="shared" si="5"/>
         <v>458</v>
       </c>
       <c r="O336" s="4">
@@ -22873,7 +22877,7 @@
       <c r="L337" s="4"/>
       <c r="M337" s="4"/>
       <c r="N337" s="4">
-        <f>SUM(O337:T337)</f>
+        <f t="shared" si="5"/>
         <v>458</v>
       </c>
       <c r="O337" s="4">
@@ -22935,7 +22939,7 @@
       <c r="L338" s="4"/>
       <c r="M338" s="4"/>
       <c r="N338" s="4">
-        <f>SUM(O338:T338)</f>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="O338" s="4">
@@ -22997,7 +23001,7 @@
       <c r="L339" s="4"/>
       <c r="M339" s="4"/>
       <c r="N339" s="4">
-        <f>SUM(O339:T339)</f>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="O339" s="4">
@@ -23059,7 +23063,7 @@
       <c r="L340" s="4"/>
       <c r="M340" s="4"/>
       <c r="N340" s="4">
-        <f>SUM(O340:T340)</f>
+        <f t="shared" si="5"/>
         <v>288</v>
       </c>
       <c r="O340" s="4">
@@ -23121,7 +23125,7 @@
       <c r="L341" s="4"/>
       <c r="M341" s="4"/>
       <c r="N341" s="4">
-        <f>SUM(O341:T341)</f>
+        <f t="shared" si="5"/>
         <v>468</v>
       </c>
       <c r="O341" s="4">
@@ -23183,7 +23187,7 @@
       <c r="L342" s="4"/>
       <c r="M342" s="4"/>
       <c r="N342" s="4">
-        <f>SUM(O342:T342)</f>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="O342" s="4">
@@ -23245,7 +23249,7 @@
       <c r="L343" s="4"/>
       <c r="M343" s="4"/>
       <c r="N343" s="4">
-        <f>SUM(O343:T343)</f>
+        <f t="shared" si="5"/>
         <v>468</v>
       </c>
       <c r="O343" s="4">
@@ -23307,7 +23311,7 @@
       <c r="L344" s="4"/>
       <c r="M344" s="4"/>
       <c r="N344" s="4">
-        <f>SUM(O344:T344)</f>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="O344" s="4">
@@ -23369,7 +23373,7 @@
       <c r="L345" s="4"/>
       <c r="M345" s="4"/>
       <c r="N345" s="4">
-        <f>SUM(O345:T345)</f>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="O345" s="4">
@@ -23431,7 +23435,7 @@
       <c r="L346" s="4"/>
       <c r="M346" s="4"/>
       <c r="N346" s="4">
-        <f>SUM(O346:T346)</f>
+        <f t="shared" si="5"/>
         <v>355</v>
       </c>
       <c r="O346" s="4">
@@ -23493,7 +23497,7 @@
       <c r="L347" s="4"/>
       <c r="M347" s="4"/>
       <c r="N347" s="4">
-        <f>SUM(O347:T347)</f>
+        <f t="shared" si="5"/>
         <v>495</v>
       </c>
       <c r="O347" s="4">
@@ -23555,7 +23559,7 @@
       <c r="L348" s="4"/>
       <c r="M348" s="4"/>
       <c r="N348" s="4">
-        <f>SUM(O348:T348)</f>
+        <f t="shared" si="5"/>
         <v>355</v>
       </c>
       <c r="O348" s="4">
@@ -23617,7 +23621,7 @@
       <c r="L349" s="4"/>
       <c r="M349" s="4"/>
       <c r="N349" s="4">
-        <f>SUM(O349:T349)</f>
+        <f t="shared" si="5"/>
         <v>495</v>
       </c>
       <c r="O349" s="4">
@@ -23677,7 +23681,7 @@
       <c r="L350" s="4"/>
       <c r="M350" s="4"/>
       <c r="N350" s="4">
-        <f>SUM(O350:T350)</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="O350" s="4">
@@ -23737,7 +23741,7 @@
       <c r="L351" s="4"/>
       <c r="M351" s="4"/>
       <c r="N351" s="4">
-        <f>SUM(O351:T351)</f>
+        <f t="shared" si="5"/>
         <v>540</v>
       </c>
       <c r="O351" s="4">
@@ -23797,7 +23801,7 @@
       <c r="L352" s="4"/>
       <c r="M352" s="4"/>
       <c r="N352" s="4">
-        <f>SUM(O352:T352)</f>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="O352" s="4">
@@ -23857,7 +23861,7 @@
       <c r="L353" s="4"/>
       <c r="M353" s="4"/>
       <c r="N353" s="4">
-        <f>SUM(O353:T353)</f>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="O353" s="4">
@@ -23917,7 +23921,7 @@
       <c r="L354" s="4"/>
       <c r="M354" s="4"/>
       <c r="N354" s="4">
-        <f>SUM(O354:T354)</f>
+        <f t="shared" si="5"/>
         <v>295</v>
       </c>
       <c r="O354" s="4">
@@ -23977,7 +23981,7 @@
       <c r="L355" s="4"/>
       <c r="M355" s="4"/>
       <c r="N355" s="4">
-        <f>SUM(O355:T355)</f>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="O355" s="4">
@@ -24037,7 +24041,7 @@
       <c r="L356" s="4"/>
       <c r="M356" s="4"/>
       <c r="N356" s="4">
-        <f>SUM(O356:T356)</f>
+        <f t="shared" si="5"/>
         <v>295</v>
       </c>
       <c r="O356" s="4">
@@ -24097,7 +24101,7 @@
       <c r="L357" s="4"/>
       <c r="M357" s="4"/>
       <c r="N357" s="4">
-        <f>SUM(O357:T357)</f>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="O357" s="4">
@@ -24159,7 +24163,7 @@
       <c r="L358" s="4"/>
       <c r="M358" s="4"/>
       <c r="N358" s="4">
-        <f>SUM(O358:T358)</f>
+        <f t="shared" si="5"/>
         <v>460</v>
       </c>
       <c r="O358" s="4">
@@ -24219,7 +24223,7 @@
       <c r="L359" s="4"/>
       <c r="M359" s="4"/>
       <c r="N359" s="4">
-        <f>SUM(O359:T359)</f>
+        <f t="shared" si="5"/>
         <v>425</v>
       </c>
       <c r="O359" s="4">
@@ -24279,7 +24283,7 @@
       <c r="L360" s="4"/>
       <c r="M360" s="4"/>
       <c r="N360" s="4">
-        <f>SUM(O360:T360)</f>
+        <f t="shared" si="5"/>
         <v>465</v>
       </c>
       <c r="O360" s="4">
@@ -24339,7 +24343,7 @@
       <c r="L361" s="4"/>
       <c r="M361" s="4"/>
       <c r="N361" s="4">
-        <f>SUM(O361:T361)</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="O361" s="4">
@@ -24399,7 +24403,7 @@
       <c r="L362" s="4"/>
       <c r="M362" s="4"/>
       <c r="N362" s="4">
-        <f>SUM(O362:T362)</f>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="O362" s="4">
@@ -24459,7 +24463,7 @@
       <c r="L363" s="4"/>
       <c r="M363" s="4"/>
       <c r="N363" s="4">
-        <f>SUM(O363:T363)</f>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="O363" s="4">
@@ -24521,7 +24525,7 @@
       <c r="L364" s="4"/>
       <c r="M364" s="4"/>
       <c r="N364" s="4">
-        <f>SUM(O364:T364)</f>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="O364" s="4">
@@ -24583,7 +24587,7 @@
       <c r="L365" s="4"/>
       <c r="M365" s="4"/>
       <c r="N365" s="4">
-        <f>SUM(O365:T365)</f>
+        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="O365" s="4">
@@ -24645,7 +24649,7 @@
       <c r="L366" s="4"/>
       <c r="M366" s="4"/>
       <c r="N366" s="4">
-        <f>SUM(O366:T366)</f>
+        <f t="shared" si="5"/>
         <v>530</v>
       </c>
       <c r="O366" s="4">
@@ -24705,7 +24709,7 @@
       <c r="L367" s="4"/>
       <c r="M367" s="4"/>
       <c r="N367" s="4">
-        <f>SUM(O367:T367)</f>
+        <f t="shared" si="5"/>
         <v>345</v>
       </c>
       <c r="O367" s="4">
@@ -24765,7 +24769,7 @@
       <c r="L368" s="4"/>
       <c r="M368" s="4"/>
       <c r="N368" s="4">
-        <f>SUM(O368:T368)</f>
+        <f t="shared" si="5"/>
         <v>485</v>
       </c>
       <c r="O368" s="4">
@@ -24825,7 +24829,7 @@
       <c r="L369" s="4"/>
       <c r="M369" s="4"/>
       <c r="N369" s="4">
-        <f>SUM(O369:T369)</f>
+        <f t="shared" si="5"/>
         <v>485</v>
       </c>
       <c r="O369" s="4">
@@ -24887,7 +24891,7 @@
       <c r="L370" s="4"/>
       <c r="M370" s="4"/>
       <c r="N370" s="4">
-        <f>SUM(O370:T370)</f>
+        <f t="shared" si="5"/>
         <v>485</v>
       </c>
       <c r="O370" s="4">
@@ -24947,7 +24951,7 @@
       <c r="L371" s="4"/>
       <c r="M371" s="4"/>
       <c r="N371" s="4">
-        <f>SUM(O371:T371)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="O371" s="4">
@@ -25007,7 +25011,7 @@
       <c r="L372" s="4"/>
       <c r="M372" s="4"/>
       <c r="N372" s="4">
-        <f>SUM(O372:T372)</f>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="O372" s="4">
@@ -25067,7 +25071,7 @@
       <c r="L373" s="4"/>
       <c r="M373" s="4"/>
       <c r="N373" s="4">
-        <f>SUM(O373:T373)</f>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="O373" s="4">
@@ -25129,7 +25133,7 @@
       <c r="L374" s="4"/>
       <c r="M374" s="4"/>
       <c r="N374" s="4">
-        <f>SUM(O374:T374)</f>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="O374" s="4">
@@ -25191,7 +25195,7 @@
       <c r="L375" s="4"/>
       <c r="M375" s="4"/>
       <c r="N375" s="4">
-        <f>SUM(O375:T375)</f>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="O375" s="4">
@@ -25253,7 +25257,7 @@
       <c r="L376" s="4"/>
       <c r="M376" s="4"/>
       <c r="N376" s="4">
-        <f>SUM(O376:T376)</f>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="O376" s="4">
@@ -25315,7 +25319,7 @@
       <c r="L377" s="4"/>
       <c r="M377" s="4"/>
       <c r="N377" s="4">
-        <f>SUM(O377:T377)</f>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="O377" s="4">
@@ -25375,7 +25379,7 @@
       <c r="L378" s="4"/>
       <c r="M378" s="4"/>
       <c r="N378" s="4">
-        <f>SUM(O378:T378)</f>
+        <f t="shared" si="5"/>
         <v>580</v>
       </c>
       <c r="O378" s="4">
@@ -25435,7 +25439,7 @@
       <c r="L379" s="4"/>
       <c r="M379" s="4"/>
       <c r="N379" s="4">
-        <f>SUM(O379:T379)</f>
+        <f t="shared" si="5"/>
         <v>580</v>
       </c>
       <c r="O379" s="4">
@@ -25495,7 +25499,7 @@
       <c r="L380" s="4"/>
       <c r="M380" s="4"/>
       <c r="N380" s="4">
-        <f>SUM(O380:T380)</f>
+        <f t="shared" si="5"/>
         <v>580</v>
       </c>
       <c r="O380" s="4">
@@ -25557,7 +25561,7 @@
       <c r="L381" s="4"/>
       <c r="M381" s="4"/>
       <c r="N381" s="4">
-        <f>SUM(O381:T381)</f>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="O381" s="4">
@@ -25619,7 +25623,7 @@
       <c r="L382" s="4"/>
       <c r="M382" s="4"/>
       <c r="N382" s="4">
-        <f>SUM(O382:T382)</f>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="O382" s="4">
@@ -25679,7 +25683,7 @@
       <c r="L383" s="4"/>
       <c r="M383" s="4"/>
       <c r="N383" s="4">
-        <f>SUM(O383:T383)</f>
+        <f t="shared" si="5"/>
         <v>670</v>
       </c>
       <c r="O383" s="4">
@@ -25739,7 +25743,7 @@
       <c r="L384" s="4"/>
       <c r="M384" s="4"/>
       <c r="N384" s="4">
-        <f>SUM(O384:T384)</f>
+        <f t="shared" si="5"/>
         <v>670</v>
       </c>
       <c r="O384" s="4">
@@ -25801,7 +25805,7 @@
       <c r="L385" s="4"/>
       <c r="M385" s="4"/>
       <c r="N385" s="4">
-        <f>SUM(O385:T385)</f>
+        <f t="shared" si="5"/>
         <v>680</v>
       </c>
       <c r="O385" s="4">
@@ -25863,7 +25867,7 @@
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
       <c r="N386" s="7">
-        <f>SUM(O386:T386)</f>
+        <f t="shared" ref="N386:N449" si="6">SUM(O386:T386)</f>
         <v>600</v>
       </c>
       <c r="O386" s="7">
@@ -25923,7 +25927,7 @@
       <c r="L387" s="4"/>
       <c r="M387" s="4"/>
       <c r="N387" s="4">
-        <f>SUM(O387:T387)</f>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="O387" s="4">

--- a/Gen3StatChanges.xlsx
+++ b/Gen3StatChanges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\EpicRomHackWithBussinRespectfully-main\EpicRomHackWithBussinRespectfully-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1ED168-B8AD-4A10-B716-EE71DEA5A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334B5F7F-9A26-47C0-96FE-949EE166F55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Gen3StatChanges.xlsx
+++ b/Gen3StatChanges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\EpicRomHackWithBussinRespectfully-main\EpicRomHackWithBussinRespectfully-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E908573-A619-4D92-8D04-F83F684226A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6423D-A155-4235-A91A-E8EA8DA9E553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3104,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5003270-07BB-4A29-BD70-2E2F2D4A4C5C}">
   <dimension ref="A1:AC387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="P184" sqref="P184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Gen3StatChanges.xlsx
+++ b/Gen3StatChanges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\EpicRomHackWithBussinRespectfully-main\EpicRomHackWithBussinRespectfully-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E104C2D9-82F4-4AAD-A76A-AB740C12B649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA07D4B-079E-4AAC-B549-D4B98D402E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3744,13 +3744,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2F8131E3-6FD8-4BF6-A8F0-A9ACC8042410}" name="Table4" displayName="Table4" ref="A1:AC387" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A1:AC387" xr:uid="{2F8131E3-6FD8-4BF6-A8F0-A9ACC8042410}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="Rock"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AC387" xr:uid="{2F8131E3-6FD8-4BF6-A8F0-A9ACC8042410}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC387">
     <sortCondition ref="A1:A387"/>
   </sortState>
@@ -4175,7 +4169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4265,7 +4259,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4355,7 +4349,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4445,7 +4439,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4531,7 +4525,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4617,7 +4611,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4707,7 +4701,7 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4793,7 +4787,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4879,7 +4873,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4967,7 +4961,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5053,7 +5047,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5139,7 +5133,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5233,7 +5227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5323,7 +5317,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5413,7 +5407,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5507,7 +5501,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5597,7 +5591,7 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5687,7 +5681,7 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5779,7 +5773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5867,7 +5861,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5957,7 +5951,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6047,7 +6041,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6139,7 +6133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6225,7 +6219,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6315,7 +6309,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6401,7 +6395,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6491,7 +6485,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6579,7 +6573,7 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6669,7 +6663,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6755,7 +6749,7 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6841,7 +6835,7 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
-    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6933,7 +6927,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -7019,7 +7013,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -7105,7 +7099,7 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -7197,7 +7191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7283,7 +7277,7 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -7369,7 +7363,7 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
     </row>
-    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7455,7 +7449,7 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -7545,7 +7539,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7631,7 +7625,7 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
     </row>
-    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -7719,7 +7713,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -7809,7 +7803,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -7899,7 +7893,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7989,7 +7983,7 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -8079,7 +8073,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -8171,7 +8165,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -8261,7 +8255,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -8355,7 +8349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -8445,7 +8439,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -8537,7 +8531,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -8625,7 +8619,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
     </row>
-    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -8715,7 +8709,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -8801,7 +8795,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
     </row>
-    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -8891,7 +8885,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -8977,7 +8971,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -9067,7 +9061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -9153,7 +9147,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
     </row>
-    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -9243,7 +9237,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -9329,7 +9323,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -9415,7 +9409,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -9501,7 +9495,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -9587,7 +9581,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -9677,7 +9671,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -9763,7 +9757,7 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -9849,7 +9843,7 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -9937,7 +9931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -10023,7 +10017,7 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -10109,7 +10103,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -10197,7 +10191,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -10287,7 +10281,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -10377,7 +10371,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -10467,7 +10461,7 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -10557,7 +10551,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -10917,7 +10911,7 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
     </row>
-    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -11005,7 +10999,7 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
     </row>
-    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -11093,7 +11087,7 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
     </row>
-    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -11183,7 +11177,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -11275,7 +11269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -11365,7 +11359,7 @@
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
     </row>
-    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -11455,7 +11449,7 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
     </row>
-    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -11547,7 +11541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -11637,7 +11631,7 @@
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
     </row>
-    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -11729,7 +11723,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -11815,7 +11809,7 @@
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
     </row>
-    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -11907,7 +11901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -11993,7 +11987,7 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
     </row>
-    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -12081,7 +12075,7 @@
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
     </row>
-    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -12167,7 +12161,7 @@
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
     </row>
-    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -12257,7 +12251,7 @@
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
     </row>
-    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -12347,7 +12341,7 @@
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
     </row>
-    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -12437,7 +12431,7 @@
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
     </row>
-    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -12619,7 +12613,7 @@
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
     </row>
-    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -12707,7 +12701,7 @@
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
     </row>
-    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -12797,7 +12791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -12883,7 +12877,7 @@
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
     </row>
-    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -12973,7 +12967,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -13059,7 +13053,7 @@
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
     </row>
-    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -13147,7 +13141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -13233,7 +13227,7 @@
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
     </row>
-    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -13323,7 +13317,7 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
     </row>
-    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -13411,7 +13405,7 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
     </row>
-    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -13501,7 +13495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -13591,7 +13585,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -13681,7 +13675,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -13767,7 +13761,7 @@
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
     </row>
-    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -13853,7 +13847,7 @@
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
     </row>
-    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -14121,7 +14115,7 @@
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
     </row>
-    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -14207,7 +14201,7 @@
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
     </row>
-    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -14295,7 +14289,7 @@
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
     </row>
-    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -14383,7 +14377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -14469,7 +14463,7 @@
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
     </row>
-    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -14555,7 +14549,7 @@
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
     </row>
-    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -14641,7 +14635,7 @@
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
     </row>
-    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -14729,7 +14723,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -14819,7 +14813,7 @@
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
     </row>
-    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -14909,7 +14903,7 @@
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
     </row>
-    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -14997,7 +14991,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -15087,7 +15081,7 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
     </row>
-    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -15179,7 +15173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -15267,7 +15261,7 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
     </row>
-    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -15353,7 +15347,7 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
     </row>
-    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -15439,7 +15433,7 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
     </row>
-    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -15529,7 +15523,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -15615,7 +15609,7 @@
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
     </row>
-    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -15705,7 +15699,7 @@
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
     </row>
-    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -15795,7 +15789,7 @@
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
     </row>
-    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -15881,7 +15875,7 @@
       <c r="AB133" s="2"/>
       <c r="AC133" s="2"/>
     </row>
-    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -15967,7 +15961,7 @@
       <c r="AB134" s="2"/>
       <c r="AC134" s="2"/>
     </row>
-    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -16053,7 +16047,7 @@
       <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
     </row>
-    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -16139,7 +16133,7 @@
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
     </row>
-    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -16225,7 +16219,7 @@
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
     </row>
-    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -16311,7 +16305,7 @@
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
     </row>
-    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -16401,7 +16395,7 @@
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
     </row>
-    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -16491,7 +16485,7 @@
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
     </row>
-    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -16581,7 +16575,7 @@
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
     </row>
-    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -16761,7 +16755,7 @@
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
     </row>
-    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -16847,7 +16841,7 @@
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
     </row>
-    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -16937,7 +16931,7 @@
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
     </row>
-    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -17027,7 +17021,7 @@
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
     </row>
-    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -17117,7 +17111,7 @@
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
     </row>
-    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -17203,7 +17197,7 @@
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
     </row>
-    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -17289,7 +17283,7 @@
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
     </row>
-    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -17379,7 +17373,7 @@
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
     </row>
-    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -17465,7 +17459,7 @@
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
     </row>
-    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -17551,7 +17545,7 @@
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
     </row>
-    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -17637,7 +17631,7 @@
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
     </row>
-    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -17723,7 +17717,7 @@
       <c r="AB154" s="2"/>
       <c r="AC154" s="2"/>
     </row>
-    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -17809,7 +17803,7 @@
       <c r="AB155" s="2"/>
       <c r="AC155" s="2"/>
     </row>
-    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -17895,7 +17889,7 @@
       <c r="AB156" s="2"/>
       <c r="AC156" s="2"/>
     </row>
-    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -17981,7 +17975,7 @@
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
     </row>
-    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -18069,7 +18063,7 @@
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
     </row>
-    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -18155,7 +18149,7 @@
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
     </row>
-    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -18241,7 +18235,7 @@
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
     </row>
-    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -18327,7 +18321,7 @@
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
     </row>
-    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -18413,7 +18407,7 @@
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
     </row>
-    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -18501,7 +18495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -18591,7 +18585,7 @@
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
     </row>
-    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -18683,7 +18677,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -18773,7 +18767,7 @@
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
     </row>
-    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -18865,7 +18859,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -18955,7 +18949,7 @@
       <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
     </row>
-    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -19047,7 +19041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -19137,7 +19131,7 @@
       <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
     </row>
-    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -19227,7 +19221,7 @@
       <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
     </row>
-    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -19321,7 +19315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -19407,7 +19401,7 @@
       <c r="AB173" s="2"/>
       <c r="AC173" s="2"/>
     </row>
-    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -19493,7 +19487,7 @@
       <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
     </row>
-    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -19579,7 +19573,7 @@
       <c r="AB175" s="2"/>
       <c r="AC175" s="2"/>
     </row>
-    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -19665,7 +19659,7 @@
       <c r="AB176" s="2"/>
       <c r="AC176" s="2"/>
     </row>
-    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -19755,7 +19749,7 @@
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
     </row>
-    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -19845,7 +19839,7 @@
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
     </row>
-    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -19937,7 +19931,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -20023,7 +20017,7 @@
       <c r="AB180" s="2"/>
       <c r="AC180" s="2"/>
     </row>
-    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -20109,7 +20103,7 @@
       <c r="AB181" s="2"/>
       <c r="AC181" s="2"/>
     </row>
-    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -20199,7 +20193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -20289,7 +20283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -20375,7 +20369,7 @@
       <c r="AB184" s="2"/>
       <c r="AC184" s="2"/>
     </row>
-    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -20551,7 +20545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -20641,7 +20635,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -20731,7 +20725,7 @@
       <c r="AB188" s="2"/>
       <c r="AC188" s="2"/>
     </row>
-    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -20821,7 +20815,7 @@
       <c r="AB189" s="2"/>
       <c r="AC189" s="2"/>
     </row>
-    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -20913,7 +20907,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -21001,7 +20995,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -21087,7 +21081,7 @@
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
     </row>
-    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -21179,7 +21173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -21269,7 +21263,7 @@
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
     </row>
-    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -21359,7 +21353,7 @@
       <c r="AB195" s="2"/>
       <c r="AC195" s="2"/>
     </row>
-    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -21451,7 +21445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -21537,7 +21531,7 @@
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
     </row>
-    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -21623,7 +21617,7 @@
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
     </row>
-    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -21717,7 +21711,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -21809,7 +21803,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -21897,7 +21891,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -21983,7 +21977,7 @@
       <c r="AB202" s="2"/>
       <c r="AC202" s="2"/>
     </row>
-    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -22073,7 +22067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -22163,7 +22157,7 @@
       <c r="AB204" s="2"/>
       <c r="AC204" s="2"/>
     </row>
-    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -22249,7 +22243,7 @@
       <c r="AB205" s="2"/>
       <c r="AC205" s="2"/>
     </row>
-    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -22341,7 +22335,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -22427,7 +22421,7 @@
       <c r="AB207" s="2"/>
       <c r="AC207" s="2"/>
     </row>
-    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -22517,7 +22511,7 @@
       <c r="AB208" s="2"/>
       <c r="AC208" s="2"/>
     </row>
-    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -22607,7 +22601,7 @@
       <c r="AB209" s="2"/>
       <c r="AC209" s="2"/>
     </row>
-    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -22695,7 +22689,7 @@
       <c r="AB210" s="2"/>
       <c r="AC210" s="2"/>
     </row>
-    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -22785,7 +22779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -22877,7 +22871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -22969,7 +22963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -23059,7 +23053,7 @@
       <c r="AB214" s="2"/>
       <c r="AC214" s="2"/>
     </row>
-    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -23151,7 +23145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -23241,7 +23235,7 @@
       <c r="AB216" s="2"/>
       <c r="AC216" s="2"/>
     </row>
-    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -23327,7 +23321,7 @@
       <c r="AB217" s="2"/>
       <c r="AC217" s="2"/>
     </row>
-    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -23417,7 +23411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -23503,7 +23497,7 @@
       <c r="AB219" s="2"/>
       <c r="AC219" s="2"/>
     </row>
-    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -23595,7 +23589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -23685,7 +23679,7 @@
       <c r="AB221" s="2"/>
       <c r="AC221" s="2"/>
     </row>
-    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -23775,7 +23769,7 @@
       <c r="AB222" s="2"/>
       <c r="AC222" s="2"/>
     </row>
-    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -23867,7 +23861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -23953,7 +23947,7 @@
       <c r="AB224" s="2"/>
       <c r="AC224" s="2"/>
     </row>
-    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -24043,7 +24037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -24135,7 +24129,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -24225,7 +24219,7 @@
       <c r="AB227" s="2"/>
       <c r="AC227" s="2"/>
     </row>
-    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -24317,7 +24311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -24407,7 +24401,7 @@
       <c r="AB229" s="2"/>
       <c r="AC229" s="2"/>
     </row>
-    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -24499,7 +24493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -24589,7 +24583,7 @@
       <c r="AB231" s="2"/>
       <c r="AC231" s="2"/>
     </row>
-    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -24675,7 +24669,7 @@
       <c r="AB232" s="2"/>
       <c r="AC232" s="2"/>
     </row>
-    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -24763,7 +24757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -24849,7 +24843,7 @@
       <c r="AB234" s="2"/>
       <c r="AC234" s="2"/>
     </row>
-    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -24939,7 +24933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -25029,7 +25023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -25115,7 +25109,7 @@
       <c r="AB237" s="2"/>
       <c r="AC237" s="2"/>
     </row>
-    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -25205,7 +25199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -25295,7 +25289,7 @@
       <c r="AB239" s="2"/>
       <c r="AC239" s="2"/>
     </row>
-    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -25381,7 +25375,7 @@
       <c r="AB240" s="2"/>
       <c r="AC240" s="2"/>
     </row>
-    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -25467,7 +25461,7 @@
       <c r="AB241" s="2"/>
       <c r="AC241" s="2"/>
     </row>
-    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -25555,7 +25549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -25641,7 +25635,7 @@
       <c r="AB243" s="2"/>
       <c r="AC243" s="2"/>
     </row>
-    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -25727,7 +25721,7 @@
       <c r="AB244" s="2"/>
       <c r="AC244" s="2"/>
     </row>
-    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -25813,7 +25807,7 @@
       <c r="AB245" s="2"/>
       <c r="AC245" s="2"/>
     </row>
-    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -26169,7 +26163,7 @@
       <c r="AB249" s="2"/>
       <c r="AC249" s="2"/>
     </row>
-    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -26259,7 +26253,7 @@
       <c r="AB250" s="2"/>
       <c r="AC250" s="2"/>
     </row>
-    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -26349,7 +26343,7 @@
       <c r="AB251" s="2"/>
       <c r="AC251" s="2"/>
     </row>
-    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -26439,7 +26433,7 @@
       <c r="AB252" s="2"/>
       <c r="AC252" s="2"/>
     </row>
-    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -26525,7 +26519,7 @@
       <c r="AB253" s="2"/>
       <c r="AC253" s="2"/>
     </row>
-    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -26611,7 +26605,7 @@
       <c r="AB254" s="2"/>
       <c r="AC254" s="2"/>
     </row>
-    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -26699,7 +26693,7 @@
       <c r="AB255" s="2"/>
       <c r="AC255" s="2"/>
     </row>
-    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -26785,7 +26779,7 @@
       <c r="AB256" s="2"/>
       <c r="AC256" s="2"/>
     </row>
-    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -26875,7 +26869,7 @@
       <c r="AB257" s="2"/>
       <c r="AC257" s="2"/>
     </row>
-    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -26965,7 +26959,7 @@
       <c r="AB258" s="2"/>
       <c r="AC258" s="2"/>
     </row>
-    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -27051,7 +27045,7 @@
       <c r="AB259" s="2"/>
       <c r="AC259" s="2"/>
     </row>
-    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -27141,7 +27135,7 @@
       <c r="AB260" s="2"/>
       <c r="AC260" s="2"/>
     </row>
-    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -27231,7 +27225,7 @@
       <c r="AB261" s="2"/>
       <c r="AC261" s="2"/>
     </row>
-    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -27317,7 +27311,7 @@
       <c r="AB262" s="2"/>
       <c r="AC262" s="2"/>
     </row>
-    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -27405,7 +27399,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -27493,7 +27487,7 @@
       <c r="AB264" s="2"/>
       <c r="AC264" s="2"/>
     </row>
-    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -27583,7 +27577,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -27669,7 +27663,7 @@
       <c r="AB266" s="2"/>
       <c r="AC266" s="2"/>
     </row>
-    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -27755,7 +27749,7 @@
       <c r="AB267" s="2"/>
       <c r="AC267" s="2"/>
     </row>
-    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -27849,7 +27843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -27935,7 +27929,7 @@
       <c r="AB269" s="2"/>
       <c r="AC269" s="2"/>
     </row>
-    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -28025,7 +28019,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -28115,7 +28109,7 @@
       <c r="AB271" s="2"/>
       <c r="AC271" s="2"/>
     </row>
-    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -28205,7 +28199,7 @@
       <c r="AB272" s="2"/>
       <c r="AC272" s="2"/>
     </row>
-    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -28297,7 +28291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -28383,7 +28377,7 @@
       <c r="AB274" s="2"/>
       <c r="AC274" s="2"/>
     </row>
-    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -28473,7 +28467,7 @@
       <c r="AB275" s="2"/>
       <c r="AC275" s="2"/>
     </row>
-    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -28565,7 +28559,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -28655,7 +28649,7 @@
       <c r="AB277" s="2"/>
       <c r="AC277" s="2"/>
     </row>
-    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -28747,7 +28741,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -28837,7 +28831,7 @@
       <c r="AB279" s="2"/>
       <c r="AC279" s="2"/>
     </row>
-    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -28929,7 +28923,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -29015,7 +29009,7 @@
       <c r="AB281" s="2"/>
       <c r="AC281" s="2"/>
     </row>
-    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -29101,7 +29095,7 @@
       <c r="AB282" s="2"/>
       <c r="AC282" s="2"/>
     </row>
-    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -29187,7 +29181,7 @@
       <c r="AB283" s="2"/>
       <c r="AC283" s="2"/>
     </row>
-    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -29277,7 +29271,7 @@
       <c r="AB284" s="2"/>
       <c r="AC284" s="2"/>
     </row>
-    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -29369,7 +29363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -29455,7 +29449,7 @@
       <c r="AB286" s="2"/>
       <c r="AC286" s="2"/>
     </row>
-    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -29547,7 +29541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -29633,7 +29627,7 @@
       <c r="AB288" s="2"/>
       <c r="AC288" s="2"/>
     </row>
-    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -29719,7 +29713,7 @@
       <c r="AB289" s="2"/>
       <c r="AC289" s="2"/>
     </row>
-    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -29805,7 +29799,7 @@
       <c r="AB290" s="2"/>
       <c r="AC290" s="2"/>
     </row>
-    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -29895,7 +29889,7 @@
       <c r="AB291" s="2"/>
       <c r="AC291" s="2"/>
     </row>
-    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -29989,7 +29983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -30083,7 +30077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -30169,7 +30163,7 @@
       <c r="AB294" s="2"/>
       <c r="AC294" s="2"/>
     </row>
-    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -30255,7 +30249,7 @@
       <c r="AB295" s="2"/>
       <c r="AC295" s="2"/>
     </row>
-    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -30345,7 +30339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -30431,7 +30425,7 @@
       <c r="AB297" s="2"/>
       <c r="AC297" s="2"/>
     </row>
-    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -30519,7 +30513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -30693,7 +30687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -30779,7 +30773,7 @@
       <c r="AB301" s="2"/>
       <c r="AC301" s="2"/>
     </row>
-    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -30869,7 +30863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -30961,7 +30955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -31047,7 +31041,7 @@
       <c r="AB304" s="2"/>
       <c r="AC304" s="2"/>
     </row>
-    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -31137,7 +31131,7 @@
       <c r="AB305" s="2"/>
       <c r="AC305" s="2"/>
     </row>
-    <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -31227,7 +31221,7 @@
       <c r="AB306" s="2"/>
       <c r="AC306" s="2"/>
     </row>
-    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -31317,7 +31311,7 @@
       <c r="AB307" s="2"/>
       <c r="AC307" s="2"/>
     </row>
-    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -31407,7 +31401,7 @@
       <c r="AB308" s="2"/>
       <c r="AC308" s="2"/>
     </row>
-    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -31499,7 +31493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -31585,7 +31579,7 @@
       <c r="AB310" s="2"/>
       <c r="AC310" s="2"/>
     </row>
-    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -31673,7 +31667,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -31763,7 +31757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -31853,7 +31847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="314" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -31943,7 +31937,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="315" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -32033,7 +32027,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="316" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -32123,7 +32117,7 @@
       <c r="AB316" s="2"/>
       <c r="AC316" s="2"/>
     </row>
-    <row r="317" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -32211,7 +32205,7 @@
       <c r="AB317" s="2"/>
       <c r="AC317" s="2"/>
     </row>
-    <row r="318" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -32301,7 +32295,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -32391,7 +32385,7 @@
       <c r="AB319" s="2"/>
       <c r="AC319" s="2"/>
     </row>
-    <row r="320" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -32485,7 +32479,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="321" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -32571,7 +32565,7 @@
       <c r="AB321" s="2"/>
       <c r="AC321" s="2"/>
     </row>
-    <row r="322" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -32659,7 +32653,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="323" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -32749,7 +32743,7 @@
       <c r="AB323" s="2"/>
       <c r="AC323" s="2"/>
     </row>
-    <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -32841,7 +32835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -32929,7 +32923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -33015,7 +33009,7 @@
       <c r="AB326" s="2"/>
       <c r="AC326" s="2"/>
     </row>
-    <row r="327" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -33105,7 +33099,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="328" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -33195,7 +33189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -33281,7 +33275,7 @@
       <c r="AB329" s="2"/>
       <c r="AC329" s="2"/>
     </row>
-    <row r="330" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -33371,7 +33365,7 @@
       <c r="AB330" s="2"/>
       <c r="AC330" s="2"/>
     </row>
-    <row r="331" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -33461,7 +33455,7 @@
       <c r="AB331" s="2"/>
       <c r="AC331" s="2"/>
     </row>
-    <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -33551,7 +33545,7 @@
       <c r="AB332" s="2"/>
       <c r="AC332" s="2"/>
     </row>
-    <row r="333" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -33643,7 +33637,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="334" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -33733,7 +33727,7 @@
       <c r="AB334" s="2"/>
       <c r="AC334" s="2"/>
     </row>
-    <row r="335" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -33823,7 +33817,7 @@
       <c r="AB335" s="2"/>
       <c r="AC335" s="2"/>
     </row>
-    <row r="336" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -33913,7 +33907,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -34185,7 +34179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="340" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -34275,7 +34269,7 @@
       <c r="AB340" s="2"/>
       <c r="AC340" s="2"/>
     </row>
-    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -34367,7 +34361,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="342" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -34457,7 +34451,7 @@
       <c r="AB342" s="2"/>
       <c r="AC342" s="2"/>
     </row>
-    <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -34549,7 +34543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -34639,7 +34633,7 @@
       <c r="AB344" s="2"/>
       <c r="AC344" s="2"/>
     </row>
-    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -34731,7 +34725,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -34821,7 +34815,7 @@
       <c r="AB346" s="2"/>
       <c r="AC346" s="2"/>
     </row>
-    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -34913,7 +34907,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -35003,7 +34997,7 @@
       <c r="AB348" s="2"/>
       <c r="AC348" s="2"/>
     </row>
-    <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -35095,7 +35089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -35181,7 +35175,7 @@
       <c r="AB350" s="2"/>
       <c r="AC350" s="2"/>
     </row>
-    <row r="351" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -35269,7 +35263,7 @@
       <c r="AB351" s="2"/>
       <c r="AC351" s="2"/>
     </row>
-    <row r="352" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -35357,7 +35351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -35445,7 +35439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -35531,7 +35525,7 @@
       <c r="AB354" s="2"/>
       <c r="AC354" s="2"/>
     </row>
-    <row r="355" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -35621,7 +35615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="356" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -35707,7 +35701,7 @@
       <c r="AB356" s="2"/>
       <c r="AC356" s="2"/>
     </row>
-    <row r="357" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -35795,7 +35789,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="358" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -35885,7 +35879,7 @@
       <c r="AB358" s="2"/>
       <c r="AC358" s="2"/>
     </row>
-    <row r="359" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -35975,7 +35969,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -36063,7 +36057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="361" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -36149,7 +36143,7 @@
       <c r="AB361" s="2"/>
       <c r="AC361" s="2"/>
     </row>
-    <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -36235,7 +36229,7 @@
       <c r="AB362" s="2"/>
       <c r="AC362" s="2"/>
     </row>
-    <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -36321,7 +36315,7 @@
       <c r="AB363" s="2"/>
       <c r="AC363" s="2"/>
     </row>
-    <row r="364" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -36411,7 +36405,7 @@
       <c r="AB364" s="2"/>
       <c r="AC364" s="2"/>
     </row>
-    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -36501,7 +36495,7 @@
       <c r="AB365" s="2"/>
       <c r="AC365" s="2"/>
     </row>
-    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -36591,7 +36585,7 @@
       <c r="AB366" s="2"/>
       <c r="AC366" s="2"/>
     </row>
-    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -36677,7 +36671,7 @@
       <c r="AB367" s="2"/>
       <c r="AC367" s="2"/>
     </row>
-    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -36765,7 +36759,7 @@
       <c r="AB368" s="2"/>
       <c r="AC368" s="2"/>
     </row>
-    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -36855,7 +36849,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -36947,7 +36941,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -37035,7 +37029,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -37121,7 +37115,7 @@
       <c r="AB372" s="2"/>
       <c r="AC372" s="2"/>
     </row>
-    <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -37207,7 +37201,7 @@
       <c r="AB373" s="2"/>
       <c r="AC373" s="2"/>
     </row>
-    <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -37297,7 +37291,7 @@
       <c r="AB374" s="2"/>
       <c r="AC374" s="2"/>
     </row>
-    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -37387,7 +37381,7 @@
       <c r="AB375" s="2"/>
       <c r="AC375" s="2"/>
     </row>
-    <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -37477,7 +37471,7 @@
       <c r="AB376" s="2"/>
       <c r="AC376" s="2"/>
     </row>
-    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -37653,7 +37647,7 @@
       <c r="AB378" s="2"/>
       <c r="AC378" s="2"/>
     </row>
-    <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -37739,7 +37733,7 @@
       <c r="AB379" s="2"/>
       <c r="AC379" s="2"/>
     </row>
-    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -37825,7 +37819,7 @@
       <c r="AB380" s="2"/>
       <c r="AC380" s="2"/>
     </row>
-    <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -37915,7 +37909,7 @@
       <c r="AB381" s="2"/>
       <c r="AC381" s="2"/>
     </row>
-    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -38005,7 +37999,7 @@
       <c r="AB382" s="2"/>
       <c r="AC382" s="2"/>
     </row>
-    <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -38091,7 +38085,7 @@
       <c r="AB383" s="2"/>
       <c r="AC383" s="2"/>
     </row>
-    <row r="384" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -38177,7 +38171,7 @@
       <c r="AB384" s="2"/>
       <c r="AC384" s="2"/>
     </row>
-    <row r="385" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -38267,7 +38261,7 @@
       <c r="AB385" s="2"/>
       <c r="AC385" s="2"/>
     </row>
-    <row r="386" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -38357,7 +38351,7 @@
       <c r="AB386" s="2"/>
       <c r="AC386" s="2"/>
     </row>
-    <row r="387" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>386</v>
       </c>
